--- a/data_output/Excess Mortality/Regions/TOTAL_BG_Total_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
+++ b/data_output/Excess Mortality/Regions/TOTAL_BG_Total_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
@@ -662,7 +662,7 @@
         <v>2020</v>
       </c>
       <c r="D3" t="n">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="E3" t="n">
         <v>2133</v>
@@ -698,7 +698,7 @@
         <v>2174.5</v>
       </c>
       <c r="P3" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q3" t="n">
         <v>28.5</v>
@@ -716,7 +716,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>310.0 (±28.5)</t>
+          <t>309.0 (±28.5)</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -728,14 +728,14 @@
         <v>211475</v>
       </c>
       <c r="X3" t="n">
-        <v>146.6</v>
+        <v>146.1</v>
       </c>
       <c r="Y3" t="n">
         <v>13.5</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>146.6(±13.5)</t>
+          <t>146.1(±13.5)</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
         <v>2020</v>
       </c>
       <c r="D6" t="n">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="E6" t="n">
         <v>1581</v>
@@ -974,13 +974,13 @@
         <v>1547.7</v>
       </c>
       <c r="P6" t="n">
-        <v>252.6</v>
+        <v>253.6</v>
       </c>
       <c r="Q6" t="n">
         <v>55.3</v>
       </c>
       <c r="R6" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="S6" t="n">
         <v>4.2</v>
@@ -992,26 +992,26 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>252.6 (±55.3)</t>
+          <t>253.6 (±55.3)</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>16.9% (±4.2%)</t>
+          <t>17.0% (±4.2%)</t>
         </is>
       </c>
       <c r="W6" t="n">
         <v>115346</v>
       </c>
       <c r="X6" t="n">
-        <v>219</v>
+        <v>219.9</v>
       </c>
       <c r="Y6" t="n">
         <v>47.9</v>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>219.0(±47.9)</t>
+          <t>219.9(±47.9)</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
         <v>2020</v>
       </c>
       <c r="D10" t="n">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="E10" t="n">
         <v>1177</v>
@@ -1342,13 +1342,13 @@
         <v>1161.6</v>
       </c>
       <c r="P10" t="n">
-        <v>121.6</v>
+        <v>122.6</v>
       </c>
       <c r="Q10" t="n">
         <v>32.2</v>
       </c>
       <c r="R10" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S10" t="n">
         <v>3.1</v>
@@ -1360,26 +1360,26 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>121.6 (±32.2)</t>
+          <t>122.6 (±32.2)</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>10.8% (±3.1%)</t>
+          <t>10.9% (±3.1%)</t>
         </is>
       </c>
       <c r="W10" t="n">
         <v>64880</v>
       </c>
       <c r="X10" t="n">
-        <v>187.4</v>
+        <v>189</v>
       </c>
       <c r="Y10" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>187.4(±49.7)</t>
+          <t>189.0(±49.6)</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
         <v>2020</v>
       </c>
       <c r="D11" t="n">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="E11" t="n">
         <v>1604</v>
@@ -1434,16 +1434,16 @@
         <v>1605.1</v>
       </c>
       <c r="P11" t="n">
-        <v>349.2</v>
+        <v>350.2</v>
       </c>
       <c r="Q11" t="n">
         <v>46.3</v>
       </c>
       <c r="R11" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="S11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1452,26 +1452,26 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>349.2 (±46.3)</t>
+          <t>350.2 (±46.3)</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>22.4% (±3.5%)</t>
+          <t>22.5% (±3.6%)</t>
         </is>
       </c>
       <c r="W11" t="n">
         <v>129061</v>
       </c>
       <c r="X11" t="n">
-        <v>270.6</v>
+        <v>271.3</v>
       </c>
       <c r="Y11" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>270.6(±35.8)</t>
+          <t>271.3(±35.9)</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
         <v>2020</v>
       </c>
       <c r="D14" t="n">
-        <v>4724</v>
+        <v>4723</v>
       </c>
       <c r="E14" t="n">
         <v>3901</v>
@@ -1710,7 +1710,7 @@
         <v>3940.199999999999</v>
       </c>
       <c r="P14" t="n">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="Q14" t="n">
         <v>71.2</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>855.0 (±71.2)</t>
+          <t>854.0 (±71.2)</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1740,14 +1740,14 @@
         <v>346665</v>
       </c>
       <c r="X14" t="n">
-        <v>246.6</v>
+        <v>246.3</v>
       </c>
       <c r="Y14" t="n">
         <v>20.6</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>246.6(±20.6)</t>
+          <t>246.3(±20.6)</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
         <v>2020</v>
       </c>
       <c r="D15" t="n">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E15" t="n">
         <v>743</v>
@@ -1802,13 +1802,13 @@
         <v>749.9000000000001</v>
       </c>
       <c r="P15" t="n">
-        <v>213.4</v>
+        <v>214.4</v>
       </c>
       <c r="Q15" t="n">
         <v>19.3</v>
       </c>
       <c r="R15" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="S15" t="n">
         <v>3.3</v>
@@ -1820,26 +1820,26 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>213.4 (±19.3)</t>
+          <t>214.4 (±19.3)</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>29.2% (±3.3%)</t>
+          <t>29.3% (±3.3%)</t>
         </is>
       </c>
       <c r="W15" t="n">
         <v>56777</v>
       </c>
       <c r="X15" t="n">
-        <v>375.9</v>
+        <v>377.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>375.9(±33.9)</t>
+          <t>377.6(±34.0)</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
         <v>2020</v>
       </c>
       <c r="D19" t="n">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="E19" t="n">
         <v>1168</v>
@@ -2170,16 +2170,16 @@
         <v>1136.2</v>
       </c>
       <c r="P19" t="n">
-        <v>267.6</v>
+        <v>268.6</v>
       </c>
       <c r="Q19" t="n">
         <v>40.8</v>
       </c>
       <c r="R19" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="S19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2188,26 +2188,26 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>267.6 (±40.8)</t>
+          <t>268.6 (±40.8)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>24.4% (±4.4%)</t>
+          <t>24.5% (±4.5%)</t>
         </is>
       </c>
       <c r="W19" t="n">
         <v>94697</v>
       </c>
       <c r="X19" t="n">
-        <v>282.6</v>
+        <v>283.6</v>
       </c>
       <c r="Y19" t="n">
         <v>43.1</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>282.6(±43.1)</t>
+          <t>283.6(±43.1)</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
         <v>2020</v>
       </c>
       <c r="D22" t="n">
-        <v>7283</v>
+        <v>7288</v>
       </c>
       <c r="E22" t="n">
         <v>6564</v>
@@ -2446,16 +2446,16 @@
         <v>6586.600000000002</v>
       </c>
       <c r="P22" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="Q22" t="n">
         <v>105.6</v>
       </c>
       <c r="R22" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S22" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2464,26 +2464,26 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>802.0 (±105.6)</t>
+          <t>807.0 (±105.6)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>12.4% (±1.8%)</t>
+          <t>12.5% (±1.9%)</t>
         </is>
       </c>
       <c r="W22" t="n">
         <v>691325</v>
       </c>
       <c r="X22" t="n">
-        <v>116</v>
+        <v>116.7</v>
       </c>
       <c r="Y22" t="n">
         <v>15.3</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>116.0(±15.3)</t>
+          <t>116.7(±15.3)</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
         <v>2020</v>
       </c>
       <c r="D24" t="n">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E24" t="n">
         <v>704</v>
@@ -2630,13 +2630,13 @@
         <v>745.5</v>
       </c>
       <c r="P24" t="n">
-        <v>157.4</v>
+        <v>158.4</v>
       </c>
       <c r="Q24" t="n">
         <v>13.9</v>
       </c>
       <c r="R24" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="S24" t="n">
         <v>2.3</v>
@@ -2648,26 +2648,26 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>157.4 (±13.9)</t>
+          <t>158.4 (±13.9)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>21.5% (±2.3%)</t>
+          <t>21.7% (±2.3%)</t>
         </is>
       </c>
       <c r="W24" t="n">
         <v>56750</v>
       </c>
       <c r="X24" t="n">
-        <v>277.4</v>
+        <v>279.1</v>
       </c>
       <c r="Y24" t="n">
         <v>24.5</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>277.4(±24.5)</t>
+          <t>279.1(±24.5)</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
         <v>2020</v>
       </c>
       <c r="D31" t="n">
-        <v>2807</v>
+        <v>2808</v>
       </c>
       <c r="E31" t="n">
         <v>2406</v>
@@ -3274,7 +3274,7 @@
         <v>2460.500000000001</v>
       </c>
       <c r="P31" t="n">
-        <v>374.4</v>
+        <v>375.4</v>
       </c>
       <c r="Q31" t="n">
         <v>27.9</v>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>374.4 (±27.9)</t>
+          <t>375.4 (±27.9)</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -3304,14 +3304,14 @@
         <v>197790</v>
       </c>
       <c r="X31" t="n">
-        <v>189.3</v>
+        <v>189.8</v>
       </c>
       <c r="Y31" t="n">
         <v>14.1</v>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>189.3(±14.1)</t>
+          <t>189.8(±14.1)</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
         <v>2020</v>
       </c>
       <c r="D34" t="n">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="E34" t="n">
         <v>1701</v>
@@ -3550,7 +3550,7 @@
         <v>1710.9</v>
       </c>
       <c r="P34" t="n">
-        <v>300.4</v>
+        <v>299.4</v>
       </c>
       <c r="Q34" t="n">
         <v>43.3</v>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>300.4 (±43.3)</t>
+          <t>299.4 (±43.3)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -3580,14 +3580,14 @@
         <v>109971</v>
       </c>
       <c r="X34" t="n">
-        <v>273.2</v>
+        <v>272.3</v>
       </c>
       <c r="Y34" t="n">
         <v>39.3</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>273.2(±39.3)</t>
+          <t>272.3(±39.3)</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
         <v>2020</v>
       </c>
       <c r="D35" t="n">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E35" t="n">
         <v>807</v>
@@ -3642,13 +3642,13 @@
         <v>856</v>
       </c>
       <c r="P35" t="n">
-        <v>217.6</v>
+        <v>218.6</v>
       </c>
       <c r="Q35" t="n">
         <v>22.6</v>
       </c>
       <c r="R35" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="S35" t="n">
         <v>3.3</v>
@@ -3660,26 +3660,26 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>217.6 (±22.6)</t>
+          <t>218.6 (±22.6)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>26.1% (±3.3%)</t>
+          <t>26.2% (±3.3%)</t>
         </is>
       </c>
       <c r="W35" t="n">
         <v>78102</v>
       </c>
       <c r="X35" t="n">
-        <v>278.6</v>
+        <v>279.9</v>
       </c>
       <c r="Y35" t="n">
         <v>28.9</v>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>278.6(±28.9)</t>
+          <t>279.9(±28.9)</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
         <v>2020</v>
       </c>
       <c r="D39" t="n">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="E39" t="n">
         <v>1722</v>
@@ -4010,13 +4010,13 @@
         <v>1718.8</v>
       </c>
       <c r="P39" t="n">
-        <v>538.6</v>
+        <v>540.6</v>
       </c>
       <c r="Q39" t="n">
         <v>29.4</v>
       </c>
       <c r="R39" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="S39" t="n">
         <v>2.3</v>
@@ -4028,26 +4028,26 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>538.6 (±29.4)</t>
+          <t>540.6 (±29.4)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>31.9% (±2.3%)</t>
+          <t>32.0% (±2.3%)</t>
         </is>
       </c>
       <c r="W39" t="n">
         <v>123715</v>
       </c>
       <c r="X39" t="n">
-        <v>435.4</v>
+        <v>437</v>
       </c>
       <c r="Y39" t="n">
         <v>23.7</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>435.4(±23.7)</t>
+          <t>437.0(±23.7)</t>
         </is>
       </c>
     </row>
@@ -4066,7 +4066,7 @@
         <v>2020</v>
       </c>
       <c r="D40" t="n">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="E40" t="n">
         <v>1064</v>
@@ -4102,13 +4102,13 @@
         <v>1060.1</v>
       </c>
       <c r="P40" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q40" t="n">
         <v>24.1</v>
       </c>
       <c r="R40" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="S40" t="n">
         <v>2.8</v>
@@ -4120,26 +4120,26 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>237.0 (±24.1)</t>
+          <t>238.0 (±24.1)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>22.9% (±2.8%)</t>
+          <t>23.0% (±2.8%)</t>
         </is>
       </c>
       <c r="W40" t="n">
         <v>57932</v>
       </c>
       <c r="X40" t="n">
-        <v>409.1</v>
+        <v>410.8</v>
       </c>
       <c r="Y40" t="n">
         <v>41.6</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>409.1(±41.6)</t>
+          <t>410.8(±41.6)</t>
         </is>
       </c>
     </row>
@@ -4894,7 +4894,7 @@
         <v>2020</v>
       </c>
       <c r="D49" t="n">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="E49" t="n">
         <v>1809</v>
@@ -4930,7 +4930,7 @@
         <v>1851.899999999999</v>
       </c>
       <c r="P49" t="n">
-        <v>471.8</v>
+        <v>470.8</v>
       </c>
       <c r="Q49" t="n">
         <v>17.7</v>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>471.8 (±17.7)</t>
+          <t>470.8 (±17.7)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -4960,14 +4960,14 @@
         <v>111249</v>
       </c>
       <c r="X49" t="n">
-        <v>424.1</v>
+        <v>423.2</v>
       </c>
       <c r="Y49" t="n">
         <v>15.9</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>424.1(±15.9)</t>
+          <t>423.2(±15.9)</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4986,7 @@
         <v>2020</v>
       </c>
       <c r="D50" t="n">
-        <v>7850</v>
+        <v>7853</v>
       </c>
       <c r="E50" t="n">
         <v>6335</v>
@@ -5022,7 +5022,7 @@
         <v>6396.500000000001</v>
       </c>
       <c r="P50" t="n">
-        <v>1554.6</v>
+        <v>1557.6</v>
       </c>
       <c r="Q50" t="n">
         <v>101.1</v>
@@ -5031,7 +5031,7 @@
         <v>24.7</v>
       </c>
       <c r="S50" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -5040,26 +5040,26 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>1554.6 (±101.1)</t>
+          <t>1557.6 (±101.1)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>24.7% (±2.0%)</t>
+          <t>24.7% (±1.9%)</t>
         </is>
       </c>
       <c r="W50" t="n">
         <v>637465</v>
       </c>
       <c r="X50" t="n">
-        <v>243.9</v>
+        <v>244.3</v>
       </c>
       <c r="Y50" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>243.9(±15.8)</t>
+          <t>244.3(±15.9)</t>
         </is>
       </c>
     </row>
@@ -5078,7 +5078,7 @@
         <v>2020</v>
       </c>
       <c r="D51" t="n">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="E51" t="n">
         <v>2254</v>
@@ -5114,13 +5114,13 @@
         <v>2278.7</v>
       </c>
       <c r="P51" t="n">
-        <v>437.6</v>
+        <v>435.6</v>
       </c>
       <c r="Q51" t="n">
         <v>32.3</v>
       </c>
       <c r="R51" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="S51" t="n">
         <v>1.7</v>
@@ -5132,26 +5132,26 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>437.6 (±32.3)</t>
+          <t>435.6 (±32.3)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>19.5% (±1.7%)</t>
+          <t>19.4% (±1.7%)</t>
         </is>
       </c>
       <c r="W51" t="n">
         <v>151611</v>
       </c>
       <c r="X51" t="n">
-        <v>288.6</v>
+        <v>287.3</v>
       </c>
       <c r="Y51" t="n">
         <v>21.3</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>288.6(±21.3)</t>
+          <t>287.3(±21.3)</t>
         </is>
       </c>
     </row>
@@ -5170,7 +5170,7 @@
         <v>2020</v>
       </c>
       <c r="D52" t="n">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E52" t="n">
         <v>845</v>
@@ -5206,13 +5206,13 @@
         <v>826.2999999999998</v>
       </c>
       <c r="P52" t="n">
-        <v>162.4</v>
+        <v>163.4</v>
       </c>
       <c r="Q52" t="n">
         <v>33.7</v>
       </c>
       <c r="R52" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="S52" t="n">
         <v>4.9</v>
@@ -5224,26 +5224,26 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>162.4 (±33.7)</t>
+          <t>163.4 (±33.7)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>20.5% (±4.9%)</t>
+          <t>20.6% (±4.9%)</t>
         </is>
       </c>
       <c r="W52" t="n">
         <v>54164</v>
       </c>
       <c r="X52" t="n">
-        <v>299.8</v>
+        <v>301.7</v>
       </c>
       <c r="Y52" t="n">
         <v>62.2</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>299.8(±62.2)</t>
+          <t>301.7(±62.2)</t>
         </is>
       </c>
     </row>
@@ -5262,7 +5262,7 @@
         <v>2020</v>
       </c>
       <c r="D53" t="n">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="E53" t="n">
         <v>2658</v>
@@ -5298,7 +5298,7 @@
         <v>2688.400000000001</v>
       </c>
       <c r="P53" t="n">
-        <v>471.8</v>
+        <v>472.8</v>
       </c>
       <c r="Q53" t="n">
         <v>53.2</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>471.8 (±53.2)</t>
+          <t>472.8 (±53.2)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -5328,14 +5328,14 @@
         <v>228712</v>
       </c>
       <c r="X53" t="n">
-        <v>206.3</v>
+        <v>206.7</v>
       </c>
       <c r="Y53" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>206.3(±23.2)</t>
+          <t>206.7(±23.3)</t>
         </is>
       </c>
     </row>
@@ -5354,7 +5354,7 @@
         <v>2020</v>
       </c>
       <c r="D54" t="n">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="E54" t="n">
         <v>1749</v>
@@ -5390,13 +5390,13 @@
         <v>1782.7</v>
       </c>
       <c r="P54" t="n">
-        <v>297.4</v>
+        <v>296.4</v>
       </c>
       <c r="Q54" t="n">
         <v>43.1</v>
       </c>
       <c r="R54" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="S54" t="n">
         <v>2.8</v>
@@ -5408,26 +5408,26 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>297.4 (±43.1)</t>
+          <t>296.4 (±43.1)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>17.1% (±2.8%)</t>
+          <t>17.0% (±2.8%)</t>
         </is>
       </c>
       <c r="W54" t="n">
         <v>112401</v>
       </c>
       <c r="X54" t="n">
-        <v>264.6</v>
+        <v>263.7</v>
       </c>
       <c r="Y54" t="n">
         <v>38.3</v>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>264.6(±38.3)</t>
+          <t>263.7(±38.3)</t>
         </is>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
         <v>2020</v>
       </c>
       <c r="D63" t="n">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="E63" t="n">
         <v>1546</v>
@@ -6218,16 +6218,16 @@
         <v>1571.3</v>
       </c>
       <c r="P63" t="n">
-        <v>360.2</v>
+        <v>361.2</v>
       </c>
       <c r="Q63" t="n">
         <v>5.5</v>
       </c>
       <c r="R63" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="S63" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -6236,26 +6236,26 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>360.2 (±5.5)</t>
+          <t>361.2 (±5.5)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>23.0% (±0.4%)</t>
+          <t>23.1% (±0.5%)</t>
         </is>
       </c>
       <c r="W63" t="n">
         <v>158204</v>
       </c>
       <c r="X63" t="n">
-        <v>227.7</v>
+        <v>228.3</v>
       </c>
       <c r="Y63" t="n">
         <v>3.5</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>227.7(±3.5)</t>
+          <t>228.3(±3.5)</t>
         </is>
       </c>
     </row>
@@ -6458,7 +6458,7 @@
         <v>2020</v>
       </c>
       <c r="D66" t="n">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="E66" t="n">
         <v>2429</v>
@@ -6494,13 +6494,13 @@
         <v>2405.1</v>
       </c>
       <c r="P66" t="n">
-        <v>397.8</v>
+        <v>398.8</v>
       </c>
       <c r="Q66" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="R66" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="S66" t="n">
         <v>4</v>
@@ -6512,26 +6512,26 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>397.8 (±81.9)</t>
+          <t>398.8 (±81.9)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>17.1% (±4.0%)</t>
+          <t>17.2% (±4.0%)</t>
         </is>
       </c>
       <c r="W66" t="n">
         <v>127001</v>
       </c>
       <c r="X66" t="n">
-        <v>313.2</v>
+        <v>314</v>
       </c>
       <c r="Y66" t="n">
         <v>64.5</v>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>313.2(±64.5)</t>
+          <t>314.0(±64.5)</t>
         </is>
       </c>
     </row>
@@ -6550,7 +6550,7 @@
         <v>2020</v>
       </c>
       <c r="D67" t="n">
-        <v>4136</v>
+        <v>4139</v>
       </c>
       <c r="E67" t="n">
         <v>3326</v>
@@ -6586,16 +6586,16 @@
         <v>3315.3</v>
       </c>
       <c r="P67" t="n">
-        <v>887.8</v>
+        <v>890.8</v>
       </c>
       <c r="Q67" t="n">
         <v>67.09999999999999</v>
       </c>
       <c r="R67" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="S67" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -6604,26 +6604,26 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>887.8 (±67.1)</t>
+          <t>890.8 (±67.1)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>27.3% (±2.5%)</t>
+          <t>27.4% (±2.6%)</t>
         </is>
       </c>
       <c r="W67" t="n">
         <v>252776</v>
       </c>
       <c r="X67" t="n">
-        <v>351.2</v>
+        <v>352.4</v>
       </c>
       <c r="Y67" t="n">
         <v>26.6</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>351.2(±26.6)</t>
+          <t>352.4(±26.6)</t>
         </is>
       </c>
     </row>
@@ -6642,7 +6642,7 @@
         <v>2020</v>
       </c>
       <c r="D68" t="n">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="E68" t="n">
         <v>2003</v>
@@ -6678,7 +6678,7 @@
         <v>1998.1</v>
       </c>
       <c r="P68" t="n">
-        <v>383.6</v>
+        <v>384.6</v>
       </c>
       <c r="Q68" t="n">
         <v>39.7</v>
@@ -6687,7 +6687,7 @@
         <v>19.6</v>
       </c>
       <c r="S68" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -6696,26 +6696,26 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>383.6 (±39.7)</t>
+          <t>384.6 (±39.7)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>19.6% (±2.4%)</t>
+          <t>19.6% (±2.3%)</t>
         </is>
       </c>
       <c r="W68" t="n">
         <v>119190</v>
       </c>
       <c r="X68" t="n">
-        <v>321.8</v>
+        <v>322.7</v>
       </c>
       <c r="Y68" t="n">
         <v>33.3</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>321.8(±33.3)</t>
+          <t>322.7(±33.3)</t>
         </is>
       </c>
     </row>
@@ -6826,7 +6826,7 @@
         <v>2020</v>
       </c>
       <c r="D70" t="n">
-        <v>9905</v>
+        <v>9904</v>
       </c>
       <c r="E70" t="n">
         <v>8132</v>
@@ -6862,7 +6862,7 @@
         <v>8172.5</v>
       </c>
       <c r="P70" t="n">
-        <v>1882.4</v>
+        <v>1881.4</v>
       </c>
       <c r="Q70" t="n">
         <v>149.9</v>
@@ -6880,7 +6880,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>1882.4 (±149.9)</t>
+          <t>1881.4 (±149.9)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -6892,14 +6892,14 @@
         <v>666801</v>
       </c>
       <c r="X70" t="n">
-        <v>282.3</v>
+        <v>282.2</v>
       </c>
       <c r="Y70" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>282.3(±22.5)</t>
+          <t>282.2(±22.4)</t>
         </is>
       </c>
     </row>
@@ -6918,7 +6918,7 @@
         <v>2020</v>
       </c>
       <c r="D71" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E71" t="n">
         <v>1580</v>
@@ -6954,7 +6954,7 @@
         <v>1586.299999999999</v>
       </c>
       <c r="P71" t="n">
-        <v>464.6</v>
+        <v>465.6</v>
       </c>
       <c r="Q71" t="n">
         <v>29.9</v>
@@ -6963,7 +6963,7 @@
         <v>29.9</v>
       </c>
       <c r="S71" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -6972,26 +6972,26 @@
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>464.6 (±29.9)</t>
+          <t>465.6 (±29.9)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>29.9% (±2.5%)</t>
+          <t>29.9% (±2.4%)</t>
         </is>
       </c>
       <c r="W71" t="n">
         <v>110789</v>
       </c>
       <c r="X71" t="n">
-        <v>419.4</v>
+        <v>420.3</v>
       </c>
       <c r="Y71" t="n">
         <v>26.9</v>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>419.4(±26.9)</t>
+          <t>420.3(±26.9)</t>
         </is>
       </c>
     </row>
@@ -7286,7 +7286,7 @@
         <v>2020</v>
       </c>
       <c r="D75" t="n">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="E75" t="n">
         <v>2380</v>
@@ -7322,16 +7322,16 @@
         <v>2381.900000000001</v>
       </c>
       <c r="P75" t="n">
-        <v>474.6</v>
+        <v>475.6</v>
       </c>
       <c r="Q75" t="n">
         <v>58.5</v>
       </c>
       <c r="R75" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="S75" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -7340,26 +7340,26 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>474.6 (±58.5)</t>
+          <t>475.6 (±58.5)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>20.4% (±2.9%)</t>
+          <t>20.5% (±3.0%)</t>
         </is>
       </c>
       <c r="W75" t="n">
         <v>184119</v>
       </c>
       <c r="X75" t="n">
-        <v>257.8</v>
+        <v>258.3</v>
       </c>
       <c r="Y75" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>257.8(±31.7)</t>
+          <t>258.3(±31.8)</t>
         </is>
       </c>
     </row>
@@ -7470,7 +7470,7 @@
         <v>2020</v>
       </c>
       <c r="D77" t="n">
-        <v>4178</v>
+        <v>4177</v>
       </c>
       <c r="E77" t="n">
         <v>3458</v>
@@ -7506,7 +7506,7 @@
         <v>3525.599999999999</v>
       </c>
       <c r="P77" t="n">
-        <v>700.4</v>
+        <v>699.4</v>
       </c>
       <c r="Q77" t="n">
         <v>48</v>
@@ -7524,7 +7524,7 @@
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>700.4 (±48.0)</t>
+          <t>699.4 (±48.0)</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -7536,14 +7536,14 @@
         <v>226671</v>
       </c>
       <c r="X77" t="n">
-        <v>309</v>
+        <v>308.6</v>
       </c>
       <c r="Y77" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>309.0(±21.2)</t>
+          <t>308.6(±21.1)</t>
         </is>
       </c>
     </row>
@@ -7562,7 +7562,7 @@
         <v>2020</v>
       </c>
       <c r="D78" t="n">
-        <v>15133</v>
+        <v>15141</v>
       </c>
       <c r="E78" t="n">
         <v>12899</v>
@@ -7598,16 +7598,16 @@
         <v>12980.1</v>
       </c>
       <c r="P78" t="n">
-        <v>2356.6</v>
+        <v>2364.6</v>
       </c>
       <c r="Q78" t="n">
         <v>203.7</v>
       </c>
       <c r="R78" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="S78" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -7616,26 +7616,26 @@
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>2356.6 (±203.7)</t>
+          <t>2364.6 (±203.7)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>18.4% (±1.8%)</t>
+          <t>18.5% (±1.9%)</t>
         </is>
       </c>
       <c r="W78" t="n">
         <v>1328790</v>
       </c>
       <c r="X78" t="n">
-        <v>177.3</v>
+        <v>178</v>
       </c>
       <c r="Y78" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>177.3(±15.4)</t>
+          <t>178.0(±15.3)</t>
         </is>
       </c>
     </row>
@@ -7654,7 +7654,7 @@
         <v>2020</v>
       </c>
       <c r="D79" t="n">
-        <v>5047</v>
+        <v>5045</v>
       </c>
       <c r="E79" t="n">
         <v>4332</v>
@@ -7690,16 +7690,16 @@
         <v>4353.9</v>
       </c>
       <c r="P79" t="n">
-        <v>768.2</v>
+        <v>766.2</v>
       </c>
       <c r="Q79" t="n">
         <v>75.09999999999999</v>
       </c>
       <c r="R79" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="S79" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -7708,26 +7708,26 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>768.2 (±75.1)</t>
+          <t>766.2 (±75.1)</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>18.0% (±2.1%)</t>
+          <t>17.9% (±2.0%)</t>
         </is>
       </c>
       <c r="W79" t="n">
         <v>313396</v>
       </c>
       <c r="X79" t="n">
-        <v>245.1</v>
+        <v>244.5</v>
       </c>
       <c r="Y79" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>245.1(±24.0)</t>
+          <t>244.5(±23.9)</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
         <v>2020</v>
       </c>
       <c r="D80" t="n">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="E80" t="n">
         <v>1549</v>
@@ -7782,13 +7782,13 @@
         <v>1553.6</v>
       </c>
       <c r="P80" t="n">
-        <v>319.8</v>
+        <v>321.8</v>
       </c>
       <c r="Q80" t="n">
         <v>29.4</v>
       </c>
       <c r="R80" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="S80" t="n">
         <v>2.3</v>
@@ -7800,26 +7800,26 @@
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>319.8 (±29.4)</t>
+          <t>321.8 (±29.4)</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>21.0% (±2.3%)</t>
+          <t>21.1% (±2.3%)</t>
         </is>
       </c>
       <c r="W80" t="n">
         <v>110914</v>
       </c>
       <c r="X80" t="n">
-        <v>288.3</v>
+        <v>290.1</v>
       </c>
       <c r="Y80" t="n">
         <v>26.5</v>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>288.3(±26.5)</t>
+          <t>290.1(±26.5)</t>
         </is>
       </c>
     </row>
@@ -7838,7 +7838,7 @@
         <v>2020</v>
       </c>
       <c r="D81" t="n">
-        <v>5892</v>
+        <v>5893</v>
       </c>
       <c r="E81" t="n">
         <v>4985</v>
@@ -7874,7 +7874,7 @@
         <v>5083.4</v>
       </c>
       <c r="P81" t="n">
-        <v>905.4</v>
+        <v>906.4</v>
       </c>
       <c r="Q81" t="n">
         <v>96.8</v>
@@ -7892,7 +7892,7 @@
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>905.4 (±96.8)</t>
+          <t>906.4 (±96.8)</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
@@ -7904,14 +7904,14 @@
         <v>469885</v>
       </c>
       <c r="X81" t="n">
-        <v>192.7</v>
+        <v>192.9</v>
       </c>
       <c r="Y81" t="n">
         <v>20.6</v>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>192.7(±20.6)</t>
+          <t>192.9(±20.6)</t>
         </is>
       </c>
     </row>
@@ -7930,7 +7930,7 @@
         <v>2020</v>
       </c>
       <c r="D82" t="n">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="E82" t="n">
         <v>3357</v>
@@ -7966,7 +7966,7 @@
         <v>3400.2</v>
       </c>
       <c r="P82" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q82" t="n">
         <v>40.2</v>
@@ -7975,7 +7975,7 @@
         <v>13.9</v>
       </c>
       <c r="S82" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -7984,26 +7984,26 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>467.0 (±40.2)</t>
+          <t>466.0 (±40.2)</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>13.9% (±1.3%)</t>
+          <t>13.9% (±1.4%)</t>
         </is>
       </c>
       <c r="W82" t="n">
         <v>232568</v>
       </c>
       <c r="X82" t="n">
-        <v>200.8</v>
+        <v>200.4</v>
       </c>
       <c r="Y82" t="n">
         <v>17.3</v>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>200.8(±17.3)</t>
+          <t>200.4(±17.3)</t>
         </is>
       </c>
     </row>

--- a/data_output/Excess Mortality/Regions/TOTAL_BG_Total_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
+++ b/data_output/Excess Mortality/Regions/TOTAL_BG_Total_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z85"/>
+  <dimension ref="A1:Z82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,17 +633,17 @@
         </is>
       </c>
       <c r="W2" t="n">
-        <v>155463</v>
+        <v>154769</v>
       </c>
       <c r="X2" t="n">
-        <v>284.8</v>
+        <v>286.1</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>284.8(±15.1)</t>
+          <t>286.1(±15.2)</t>
         </is>
       </c>
     </row>
@@ -725,17 +725,17 @@
         </is>
       </c>
       <c r="W3" t="n">
-        <v>211475</v>
+        <v>212058</v>
       </c>
       <c r="X3" t="n">
-        <v>146.1</v>
+        <v>145.7</v>
       </c>
       <c r="Y3" t="n">
         <v>13.5</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>146.1(±13.5)</t>
+          <t>145.7(±13.5)</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
         </is>
       </c>
       <c r="W4" t="n">
-        <v>88431</v>
+        <v>87793</v>
       </c>
       <c r="X4" t="n">
-        <v>187.5</v>
+        <v>188.9</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.7</v>
+        <v>43</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>187.5(±42.7)</t>
+          <t>188.9(±43.0)</t>
         </is>
       </c>
     </row>
@@ -909,17 +909,17 @@
         </is>
       </c>
       <c r="W5" t="n">
-        <v>55300</v>
+        <v>54914</v>
       </c>
       <c r="X5" t="n">
-        <v>322.6</v>
+        <v>324.9</v>
       </c>
       <c r="Y5" t="n">
-        <v>58.6</v>
+        <v>59</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>322.6(±58.6)</t>
+          <t>324.9(±59.0)</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1001,17 @@
         </is>
       </c>
       <c r="W6" t="n">
-        <v>115346</v>
+        <v>114498</v>
       </c>
       <c r="X6" t="n">
-        <v>219.9</v>
+        <v>221.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>47.9</v>
+        <v>48.3</v>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>219.9(±47.9)</t>
+          <t>221.5(±48.3)</t>
         </is>
       </c>
     </row>
@@ -1093,17 +1093,17 @@
         </is>
       </c>
       <c r="W7" t="n">
-        <v>80102</v>
+        <v>81351</v>
       </c>
       <c r="X7" t="n">
-        <v>178</v>
+        <v>175.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>178.0(±27.6)</t>
+          <t>175.3(±27.2)</t>
         </is>
       </c>
     </row>
@@ -1185,17 +1185,17 @@
         </is>
       </c>
       <c r="W8" t="n">
-        <v>59993</v>
+        <v>59920</v>
       </c>
       <c r="X8" t="n">
-        <v>300.4</v>
+        <v>300.7</v>
       </c>
       <c r="Y8" t="n">
-        <v>57.3</v>
+        <v>57.4</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>300.4(±57.3)</t>
+          <t>300.7(±57.4)</t>
         </is>
       </c>
     </row>
@@ -1277,17 +1277,17 @@
         </is>
       </c>
       <c r="W9" t="n">
-        <v>62888</v>
+        <v>62910</v>
       </c>
       <c r="X9" t="n">
         <v>159</v>
       </c>
       <c r="Y9" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>159.0(±30.4)</t>
+          <t>159.0(±30.3)</t>
         </is>
       </c>
     </row>
@@ -1369,17 +1369,17 @@
         </is>
       </c>
       <c r="W10" t="n">
-        <v>64880</v>
+        <v>64229</v>
       </c>
       <c r="X10" t="n">
-        <v>189</v>
+        <v>190.9</v>
       </c>
       <c r="Y10" t="n">
-        <v>49.6</v>
+        <v>50.1</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>189.0(±49.6)</t>
+          <t>190.9(±50.1)</t>
         </is>
       </c>
     </row>
@@ -1461,17 +1461,17 @@
         </is>
       </c>
       <c r="W11" t="n">
-        <v>129061</v>
+        <v>128479</v>
       </c>
       <c r="X11" t="n">
-        <v>271.3</v>
+        <v>272.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>271.3(±35.9)</t>
+          <t>272.6(±36.0)</t>
         </is>
       </c>
     </row>
@@ -1553,17 +1553,17 @@
         </is>
       </c>
       <c r="W12" t="n">
-        <v>61258</v>
+        <v>61876</v>
       </c>
       <c r="X12" t="n">
-        <v>239.3</v>
+        <v>236.9</v>
       </c>
       <c r="Y12" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>239.3(±31.2)</t>
+          <t>236.9(±30.9)</t>
         </is>
       </c>
     </row>
@@ -1645,17 +1645,17 @@
         </is>
       </c>
       <c r="W13" t="n">
-        <v>121576</v>
+        <v>120356</v>
       </c>
       <c r="X13" t="n">
-        <v>142.3</v>
+        <v>143.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.9</v>
+        <v>39.3</v>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>142.3(±38.9)</t>
+          <t>143.7(±39.3)</t>
         </is>
       </c>
     </row>
@@ -1737,17 +1737,17 @@
         </is>
       </c>
       <c r="W14" t="n">
-        <v>346665</v>
+        <v>346547</v>
       </c>
       <c r="X14" t="n">
-        <v>246.3</v>
+        <v>246.4</v>
       </c>
       <c r="Y14" t="n">
         <v>20.6</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>246.3(±20.6)</t>
+          <t>246.4(±20.6)</t>
         </is>
       </c>
     </row>
@@ -1829,17 +1829,17 @@
         </is>
       </c>
       <c r="W15" t="n">
-        <v>56777</v>
+        <v>56343</v>
       </c>
       <c r="X15" t="n">
-        <v>377.6</v>
+        <v>380.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>34</v>
+        <v>34.3</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>377.6(±34.0)</t>
+          <t>380.5(±34.3)</t>
         </is>
       </c>
     </row>
@@ -1921,17 +1921,17 @@
         </is>
       </c>
       <c r="W16" t="n">
-        <v>110451</v>
+        <v>109208</v>
       </c>
       <c r="X16" t="n">
-        <v>231.1</v>
+        <v>233.7</v>
       </c>
       <c r="Y16" t="n">
-        <v>45.3</v>
+        <v>45.9</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>231.1(±45.3)</t>
+          <t>233.7(±45.9)</t>
         </is>
       </c>
     </row>
@@ -2013,17 +2013,17 @@
         </is>
       </c>
       <c r="W17" t="n">
-        <v>88340</v>
+        <v>88085</v>
       </c>
       <c r="X17" t="n">
-        <v>273</v>
+        <v>273.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>53.1</v>
+        <v>53.3</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>273.0(±53.1)</t>
+          <t>273.8(±53.3)</t>
         </is>
       </c>
     </row>
@@ -2105,17 +2105,17 @@
         </is>
       </c>
       <c r="W18" t="n">
-        <v>55280</v>
+        <v>54803</v>
       </c>
       <c r="X18" t="n">
-        <v>329.6</v>
+        <v>332.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>80.09999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>329.6(±80.1)</t>
+          <t>332.5(±80.8)</t>
         </is>
       </c>
     </row>
@@ -2197,17 +2197,17 @@
         </is>
       </c>
       <c r="W19" t="n">
-        <v>94697</v>
+        <v>93975</v>
       </c>
       <c r="X19" t="n">
-        <v>283.6</v>
+        <v>285.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>43.1</v>
+        <v>43.4</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>283.6(±43.1)</t>
+          <t>285.8(±43.4)</t>
         </is>
       </c>
     </row>
@@ -2289,17 +2289,17 @@
         </is>
       </c>
       <c r="W20" t="n">
-        <v>53602</v>
+        <v>52947</v>
       </c>
       <c r="X20" t="n">
-        <v>344.4</v>
+        <v>348.7</v>
       </c>
       <c r="Y20" t="n">
-        <v>32.5</v>
+        <v>32.8</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>344.4(±32.5)</t>
+          <t>348.7(±32.8)</t>
         </is>
       </c>
     </row>
@@ -2381,17 +2381,17 @@
         </is>
       </c>
       <c r="W21" t="n">
-        <v>115422</v>
+        <v>121215</v>
       </c>
       <c r="X21" t="n">
-        <v>198.1</v>
+        <v>188.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>33.9</v>
+        <v>32.3</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>198.1(±33.9)</t>
+          <t>188.6(±32.3)</t>
         </is>
       </c>
     </row>
@@ -2403,87 +2403,87 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sofia (stolitsa)</t>
+          <t>Stara Zagora</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>2020</v>
       </c>
       <c r="D22" t="n">
-        <v>7288</v>
+        <v>2363</v>
       </c>
       <c r="E22" t="n">
-        <v>6564</v>
+        <v>2078</v>
       </c>
       <c r="F22" t="n">
-        <v>6362</v>
+        <v>1923</v>
       </c>
       <c r="G22" t="n">
-        <v>6186</v>
+        <v>1999</v>
       </c>
       <c r="H22" t="n">
-        <v>6338</v>
+        <v>2048</v>
       </c>
       <c r="I22" t="n">
-        <v>6347</v>
+        <v>1934</v>
       </c>
       <c r="J22" t="n">
-        <v>6481.000000000002</v>
+        <v>2032.399999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>120.5</v>
+        <v>61</v>
       </c>
       <c r="L22" t="n">
         <v>1.96</v>
       </c>
       <c r="M22" t="n">
-        <v>105.6</v>
+        <v>53.5</v>
       </c>
       <c r="N22" t="n">
-        <v>6375.400000000001</v>
+        <v>1978.899999999999</v>
       </c>
       <c r="O22" t="n">
-        <v>6586.600000000002</v>
+        <v>2085.9</v>
       </c>
       <c r="P22" t="n">
-        <v>807</v>
+        <v>330.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>105.6</v>
+        <v>53.5</v>
       </c>
       <c r="R22" t="n">
-        <v>12.5</v>
+        <v>16.3</v>
       </c>
       <c r="S22" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>6481.0 (±105.6)</t>
+          <t>2032.4 (±53.5)</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>807.0 (±105.6)</t>
+          <t>330.6 (±53.5)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>12.5% (±1.9%)</t>
+          <t>16.3% (±3.0%)</t>
         </is>
       </c>
       <c r="W22" t="n">
-        <v>691325</v>
+        <v>160876</v>
       </c>
       <c r="X22" t="n">
-        <v>116.7</v>
+        <v>205.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.3</v>
+        <v>33.3</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>116.7(±15.3)</t>
+          <t>205.5(±33.3)</t>
         </is>
       </c>
     </row>
@@ -2495,87 +2495,87 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Stara Zagora</t>
+          <t>Targovishte</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>2020</v>
       </c>
       <c r="D23" t="n">
-        <v>2363</v>
+        <v>890</v>
       </c>
       <c r="E23" t="n">
-        <v>2078</v>
+        <v>704</v>
       </c>
       <c r="F23" t="n">
-        <v>1923</v>
+        <v>741</v>
       </c>
       <c r="G23" t="n">
-        <v>1999</v>
+        <v>698</v>
       </c>
       <c r="H23" t="n">
-        <v>2048</v>
+        <v>714</v>
       </c>
       <c r="I23" t="n">
-        <v>1934</v>
+        <v>729</v>
       </c>
       <c r="J23" t="n">
-        <v>2032.399999999999</v>
+        <v>731.6</v>
       </c>
       <c r="K23" t="n">
-        <v>61</v>
+        <v>15.9</v>
       </c>
       <c r="L23" t="n">
         <v>1.96</v>
       </c>
       <c r="M23" t="n">
-        <v>53.5</v>
+        <v>13.9</v>
       </c>
       <c r="N23" t="n">
-        <v>1978.899999999999</v>
+        <v>717.7</v>
       </c>
       <c r="O23" t="n">
-        <v>2085.9</v>
+        <v>745.5</v>
       </c>
       <c r="P23" t="n">
-        <v>330.6</v>
+        <v>158.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.5</v>
+        <v>13.9</v>
       </c>
       <c r="R23" t="n">
-        <v>16.3</v>
+        <v>21.7</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>2032.4 (±53.5)</t>
+          <t>731.6 (±13.9)</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>330.6 (±53.5)</t>
+          <t>158.4 (±13.9)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>16.3% (±3.0%)</t>
+          <t>21.7% (±2.3%)</t>
         </is>
       </c>
       <c r="W23" t="n">
-        <v>161785</v>
+        <v>56362</v>
       </c>
       <c r="X23" t="n">
-        <v>204.3</v>
+        <v>281</v>
       </c>
       <c r="Y23" t="n">
-        <v>33.1</v>
+        <v>24.7</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>204.3(±33.1)</t>
+          <t>281.0(±24.7)</t>
         </is>
       </c>
     </row>
@@ -2587,87 +2587,87 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Targovishte</t>
+          <t>Varna</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>2020</v>
       </c>
       <c r="D24" t="n">
-        <v>890</v>
+        <v>2785</v>
       </c>
       <c r="E24" t="n">
-        <v>704</v>
+        <v>2327</v>
       </c>
       <c r="F24" t="n">
-        <v>741</v>
+        <v>2307</v>
       </c>
       <c r="G24" t="n">
-        <v>698</v>
+        <v>2274</v>
       </c>
       <c r="H24" t="n">
-        <v>714</v>
+        <v>2380</v>
       </c>
       <c r="I24" t="n">
-        <v>729</v>
+        <v>2193</v>
       </c>
       <c r="J24" t="n">
-        <v>731.6</v>
+        <v>2351.4</v>
       </c>
       <c r="K24" t="n">
-        <v>15.9</v>
+        <v>62</v>
       </c>
       <c r="L24" t="n">
         <v>1.96</v>
       </c>
       <c r="M24" t="n">
-        <v>13.9</v>
+        <v>54.3</v>
       </c>
       <c r="N24" t="n">
-        <v>717.7</v>
+        <v>2297.099999999999</v>
       </c>
       <c r="O24" t="n">
-        <v>745.5</v>
+        <v>2405.7</v>
       </c>
       <c r="P24" t="n">
-        <v>158.4</v>
+        <v>433.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>13.9</v>
+        <v>54.3</v>
       </c>
       <c r="R24" t="n">
-        <v>21.7</v>
+        <v>18.4</v>
       </c>
       <c r="S24" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>731.6 (±13.9)</t>
+          <t>2351.4 (±54.3)</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>158.4 (±13.9)</t>
+          <t>433.6 (±54.3)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>21.7% (±2.3%)</t>
+          <t>18.4% (±2.6%)</t>
         </is>
       </c>
       <c r="W24" t="n">
-        <v>56750</v>
+        <v>241499</v>
       </c>
       <c r="X24" t="n">
-        <v>279.1</v>
+        <v>179.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>279.1(±24.5)</t>
+          <t>179.5(±22.5)</t>
         </is>
       </c>
     </row>
@@ -2679,87 +2679,87 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Varna</t>
+          <t>Veliko Tarnovo</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>2020</v>
       </c>
       <c r="D25" t="n">
-        <v>2785</v>
+        <v>1790</v>
       </c>
       <c r="E25" t="n">
-        <v>2327</v>
+        <v>1608</v>
       </c>
       <c r="F25" t="n">
-        <v>2307</v>
+        <v>1539</v>
       </c>
       <c r="G25" t="n">
-        <v>2274</v>
+        <v>1604</v>
       </c>
       <c r="H25" t="n">
-        <v>2380</v>
+        <v>1631</v>
       </c>
       <c r="I25" t="n">
-        <v>2193</v>
+        <v>1572</v>
       </c>
       <c r="J25" t="n">
-        <v>2351.4</v>
+        <v>1620.4</v>
       </c>
       <c r="K25" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="L25" t="n">
         <v>1.96</v>
       </c>
       <c r="M25" t="n">
-        <v>54.3</v>
+        <v>28</v>
       </c>
       <c r="N25" t="n">
-        <v>2297.099999999999</v>
+        <v>1592.4</v>
       </c>
       <c r="O25" t="n">
-        <v>2405.7</v>
+        <v>1648.4</v>
       </c>
       <c r="P25" t="n">
-        <v>433.6</v>
+        <v>169.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>54.3</v>
+        <v>28</v>
       </c>
       <c r="R25" t="n">
-        <v>18.4</v>
+        <v>10.5</v>
       </c>
       <c r="S25" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>2351.4 (±54.3)</t>
+          <t>1620.4 (±28.0)</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>433.6 (±54.3)</t>
+          <t>169.6 (±28.0)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>18.4% (±2.6%)</t>
+          <t>10.5% (±1.9%)</t>
         </is>
       </c>
       <c r="W25" t="n">
-        <v>241173</v>
+        <v>118915</v>
       </c>
       <c r="X25" t="n">
-        <v>179.8</v>
+        <v>142.6</v>
       </c>
       <c r="Y25" t="n">
-        <v>22.5</v>
+        <v>23.6</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>179.8(±22.5)</t>
+          <t>142.6(±23.6)</t>
         </is>
       </c>
     </row>
@@ -2771,87 +2771,87 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Veliko Tarnovo</t>
+          <t>Vidin</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>2020</v>
       </c>
       <c r="D26" t="n">
-        <v>1790</v>
+        <v>928</v>
       </c>
       <c r="E26" t="n">
-        <v>1608</v>
+        <v>856</v>
       </c>
       <c r="F26" t="n">
-        <v>1539</v>
+        <v>833</v>
       </c>
       <c r="G26" t="n">
-        <v>1604</v>
+        <v>756</v>
       </c>
       <c r="H26" t="n">
-        <v>1631</v>
+        <v>772</v>
       </c>
       <c r="I26" t="n">
-        <v>1572</v>
+        <v>802</v>
       </c>
       <c r="J26" t="n">
-        <v>1620.4</v>
+        <v>819</v>
       </c>
       <c r="K26" t="n">
-        <v>32</v>
+        <v>37.1</v>
       </c>
       <c r="L26" t="n">
         <v>1.96</v>
       </c>
       <c r="M26" t="n">
-        <v>28</v>
+        <v>32.5</v>
       </c>
       <c r="N26" t="n">
-        <v>1592.4</v>
+        <v>786.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1648.4</v>
+        <v>851.5</v>
       </c>
       <c r="P26" t="n">
-        <v>169.6</v>
+        <v>109</v>
       </c>
       <c r="Q26" t="n">
-        <v>28</v>
+        <v>32.5</v>
       </c>
       <c r="R26" t="n">
-        <v>10.5</v>
+        <v>13.3</v>
       </c>
       <c r="S26" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>1620.4 (±28.0)</t>
+          <t>819.0 (±32.5)</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>169.6 (±28.0)</t>
+          <t>109.0 (±32.5)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>10.5% (±1.9%)</t>
+          <t>13.3% (±4.3%)</t>
         </is>
       </c>
       <c r="W26" t="n">
-        <v>120167</v>
+        <v>41725</v>
       </c>
       <c r="X26" t="n">
-        <v>141.1</v>
+        <v>261.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>23.3</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>141.1(±23.3)</t>
+          <t>261.2(±77.9)</t>
         </is>
       </c>
     </row>
@@ -2863,87 +2863,87 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Vidin</t>
+          <t>Vratsa</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>2020</v>
       </c>
       <c r="D27" t="n">
-        <v>928</v>
+        <v>1377</v>
       </c>
       <c r="E27" t="n">
-        <v>856</v>
+        <v>1301</v>
       </c>
       <c r="F27" t="n">
-        <v>833</v>
+        <v>1252</v>
       </c>
       <c r="G27" t="n">
-        <v>756</v>
+        <v>1284</v>
       </c>
       <c r="H27" t="n">
-        <v>772</v>
+        <v>1269</v>
       </c>
       <c r="I27" t="n">
-        <v>802</v>
+        <v>1162</v>
       </c>
       <c r="J27" t="n">
-        <v>819</v>
+        <v>1278.4</v>
       </c>
       <c r="K27" t="n">
-        <v>37.1</v>
+        <v>48.6</v>
       </c>
       <c r="L27" t="n">
         <v>1.96</v>
       </c>
       <c r="M27" t="n">
-        <v>32.5</v>
+        <v>42.6</v>
       </c>
       <c r="N27" t="n">
-        <v>786.5</v>
+        <v>1235.8</v>
       </c>
       <c r="O27" t="n">
-        <v>851.5</v>
+        <v>1321</v>
       </c>
       <c r="P27" t="n">
-        <v>109</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.5</v>
+        <v>42.6</v>
       </c>
       <c r="R27" t="n">
-        <v>13.3</v>
+        <v>7.7</v>
       </c>
       <c r="S27" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>819.0 (±32.5)</t>
+          <t>1278.4 (±42.6)</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>109.0 (±32.5)</t>
+          <t>98.6 (±42.6)</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>13.3% (±4.3%)</t>
+          <t>7.7% (±3.5%)</t>
         </is>
       </c>
       <c r="W27" t="n">
-        <v>42466</v>
+        <v>80441</v>
       </c>
       <c r="X27" t="n">
-        <v>256.7</v>
+        <v>122.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>76.5</v>
+        <v>52.9</v>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>256.7(±76.5)</t>
+          <t>122.6(±52.9)</t>
         </is>
       </c>
     </row>
@@ -2955,179 +2955,179 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Vratsa</t>
+          <t>Yambol</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>2020</v>
       </c>
       <c r="D28" t="n">
-        <v>1377</v>
+        <v>982</v>
       </c>
       <c r="E28" t="n">
-        <v>1301</v>
+        <v>939</v>
       </c>
       <c r="F28" t="n">
-        <v>1252</v>
+        <v>783</v>
       </c>
       <c r="G28" t="n">
-        <v>1284</v>
+        <v>781</v>
       </c>
       <c r="H28" t="n">
-        <v>1269</v>
+        <v>823</v>
       </c>
       <c r="I28" t="n">
-        <v>1162</v>
+        <v>811</v>
       </c>
       <c r="J28" t="n">
-        <v>1278.4</v>
+        <v>849.0000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>48.6</v>
+        <v>58.1</v>
       </c>
       <c r="L28" t="n">
         <v>1.96</v>
       </c>
       <c r="M28" t="n">
-        <v>42.6</v>
+        <v>50.9</v>
       </c>
       <c r="N28" t="n">
-        <v>1235.8</v>
+        <v>798.1000000000001</v>
       </c>
       <c r="O28" t="n">
-        <v>1321</v>
+        <v>899.9000000000001</v>
       </c>
       <c r="P28" t="n">
-        <v>98.59999999999999</v>
+        <v>133</v>
       </c>
       <c r="Q28" t="n">
-        <v>42.6</v>
+        <v>50.9</v>
       </c>
       <c r="R28" t="n">
-        <v>7.7</v>
+        <v>15.7</v>
       </c>
       <c r="S28" t="n">
-        <v>3.5</v>
+        <v>6.6</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>1278.4 (±42.6)</t>
+          <t>849.0 (±50.9)</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>98.6 (±42.6)</t>
+          <t>133.0 (±50.9)</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>7.7% (±3.5%)</t>
+          <t>15.7% (±6.6%)</t>
         </is>
       </c>
       <c r="W28" t="n">
-        <v>81236</v>
+        <v>59525</v>
       </c>
       <c r="X28" t="n">
-        <v>121.4</v>
+        <v>223.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>52.4</v>
+        <v>85.5</v>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>121.4(±52.4)</t>
+          <t>223.4(±85.5)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Yambol</t>
+          <t>Blagoevgrad</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>2020</v>
       </c>
       <c r="D29" t="n">
-        <v>982</v>
+        <v>2258</v>
       </c>
       <c r="E29" t="n">
-        <v>939</v>
+        <v>1816</v>
       </c>
       <c r="F29" t="n">
-        <v>783</v>
+        <v>1724</v>
       </c>
       <c r="G29" t="n">
-        <v>781</v>
+        <v>1719</v>
       </c>
       <c r="H29" t="n">
-        <v>823</v>
+        <v>1763</v>
       </c>
       <c r="I29" t="n">
-        <v>811</v>
+        <v>1689</v>
       </c>
       <c r="J29" t="n">
-        <v>849.0000000000001</v>
+        <v>1781.4</v>
       </c>
       <c r="K29" t="n">
-        <v>58.1</v>
+        <v>43.8</v>
       </c>
       <c r="L29" t="n">
         <v>1.96</v>
       </c>
       <c r="M29" t="n">
-        <v>50.9</v>
+        <v>38.4</v>
       </c>
       <c r="N29" t="n">
-        <v>798.1000000000001</v>
+        <v>1743</v>
       </c>
       <c r="O29" t="n">
-        <v>899.9000000000001</v>
+        <v>1819.8</v>
       </c>
       <c r="P29" t="n">
-        <v>133</v>
+        <v>476.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>50.9</v>
+        <v>38.4</v>
       </c>
       <c r="R29" t="n">
-        <v>15.7</v>
+        <v>26.8</v>
       </c>
       <c r="S29" t="n">
-        <v>6.6</v>
+        <v>2.7</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>849.0 (±50.9)</t>
+          <t>1781.4 (±38.4)</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>133.0 (±50.9)</t>
+          <t>476.6 (±38.4)</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>15.7% (±6.6%)</t>
+          <t>26.8% (±2.7%)</t>
         </is>
       </c>
       <c r="W29" t="n">
-        <v>59927</v>
+        <v>146369</v>
       </c>
       <c r="X29" t="n">
-        <v>221.9</v>
+        <v>325.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>85</v>
+        <v>26.3</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>221.9(±85.0)</t>
+          <t>325.6(±26.3)</t>
         </is>
       </c>
     </row>
@@ -3139,87 +3139,87 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Blagoevgrad</t>
+          <t>Burgas</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>2020</v>
       </c>
       <c r="D30" t="n">
-        <v>2258</v>
+        <v>2808</v>
       </c>
       <c r="E30" t="n">
-        <v>1816</v>
+        <v>2406</v>
       </c>
       <c r="F30" t="n">
-        <v>1724</v>
+        <v>2341</v>
       </c>
       <c r="G30" t="n">
-        <v>1719</v>
+        <v>2353</v>
       </c>
       <c r="H30" t="n">
-        <v>1763</v>
+        <v>2370</v>
       </c>
       <c r="I30" t="n">
-        <v>1689</v>
+        <v>2425</v>
       </c>
       <c r="J30" t="n">
-        <v>1781.4</v>
+        <v>2432.600000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>43.8</v>
+        <v>31.8</v>
       </c>
       <c r="L30" t="n">
         <v>1.96</v>
       </c>
       <c r="M30" t="n">
-        <v>38.4</v>
+        <v>27.9</v>
       </c>
       <c r="N30" t="n">
-        <v>1743</v>
+        <v>2404.700000000001</v>
       </c>
       <c r="O30" t="n">
-        <v>1819.8</v>
+        <v>2460.500000000001</v>
       </c>
       <c r="P30" t="n">
-        <v>476.6</v>
+        <v>375.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>38.4</v>
+        <v>27.9</v>
       </c>
       <c r="R30" t="n">
-        <v>26.8</v>
+        <v>15.4</v>
       </c>
       <c r="S30" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>1781.4 (±38.4)</t>
+          <t>2432.6 (±27.9)</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>476.6 (±38.4)</t>
+          <t>375.4 (±27.9)</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>26.8% (±2.7%)</t>
+          <t>15.4% (±1.3%)</t>
         </is>
       </c>
       <c r="W30" t="n">
-        <v>147231</v>
+        <v>197692</v>
       </c>
       <c r="X30" t="n">
-        <v>323.7</v>
+        <v>189.9</v>
       </c>
       <c r="Y30" t="n">
-        <v>26.1</v>
+        <v>14.1</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>323.7(±26.1)</t>
+          <t>189.9(±14.1)</t>
         </is>
       </c>
     </row>
@@ -3231,32 +3231,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Burgas</t>
+          <t>Dobrich</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>2020</v>
       </c>
       <c r="D31" t="n">
-        <v>2808</v>
+        <v>1494</v>
       </c>
       <c r="E31" t="n">
-        <v>2406</v>
+        <v>1325</v>
       </c>
       <c r="F31" t="n">
-        <v>2341</v>
+        <v>1237</v>
       </c>
       <c r="G31" t="n">
-        <v>2353</v>
+        <v>1279</v>
       </c>
       <c r="H31" t="n">
-        <v>2370</v>
+        <v>1264</v>
       </c>
       <c r="I31" t="n">
-        <v>2425</v>
+        <v>1241</v>
       </c>
       <c r="J31" t="n">
-        <v>2432.600000000001</v>
+        <v>1298.8</v>
       </c>
       <c r="K31" t="n">
         <v>31.8</v>
@@ -3268,50 +3268,50 @@
         <v>27.9</v>
       </c>
       <c r="N31" t="n">
-        <v>2404.700000000001</v>
+        <v>1270.9</v>
       </c>
       <c r="O31" t="n">
-        <v>2460.500000000001</v>
+        <v>1326.7</v>
       </c>
       <c r="P31" t="n">
-        <v>375.4</v>
+        <v>195.2</v>
       </c>
       <c r="Q31" t="n">
         <v>27.9</v>
       </c>
       <c r="R31" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="S31" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>2432.6 (±27.9)</t>
+          <t>1298.8 (±27.9)</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>375.4 (±27.9)</t>
+          <t>195.2 (±27.9)</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>15.4% (±1.3%)</t>
+          <t>15.0% (±2.4%)</t>
         </is>
       </c>
       <c r="W31" t="n">
-        <v>197790</v>
+        <v>82505</v>
       </c>
       <c r="X31" t="n">
-        <v>189.8</v>
+        <v>236.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.1</v>
+        <v>33.8</v>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>189.8(±14.1)</t>
+          <t>236.6(±33.8)</t>
         </is>
       </c>
     </row>
@@ -3323,87 +3323,87 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dobrich</t>
+          <t>Gabrovo</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>2020</v>
       </c>
       <c r="D32" t="n">
-        <v>1494</v>
+        <v>1097</v>
       </c>
       <c r="E32" t="n">
-        <v>1325</v>
+        <v>977</v>
       </c>
       <c r="F32" t="n">
-        <v>1237</v>
+        <v>907</v>
       </c>
       <c r="G32" t="n">
-        <v>1279</v>
+        <v>891</v>
       </c>
       <c r="H32" t="n">
-        <v>1264</v>
+        <v>897</v>
       </c>
       <c r="I32" t="n">
-        <v>1241</v>
+        <v>861</v>
       </c>
       <c r="J32" t="n">
-        <v>1298.8</v>
+        <v>928.1999999999997</v>
       </c>
       <c r="K32" t="n">
-        <v>31.8</v>
+        <v>38.4</v>
       </c>
       <c r="L32" t="n">
         <v>1.96</v>
       </c>
       <c r="M32" t="n">
-        <v>27.9</v>
+        <v>33.7</v>
       </c>
       <c r="N32" t="n">
-        <v>1270.9</v>
+        <v>894.4999999999997</v>
       </c>
       <c r="O32" t="n">
-        <v>1326.7</v>
+        <v>961.8999999999997</v>
       </c>
       <c r="P32" t="n">
-        <v>195.2</v>
+        <v>168.8</v>
       </c>
       <c r="Q32" t="n">
-        <v>27.9</v>
+        <v>33.7</v>
       </c>
       <c r="R32" t="n">
-        <v>15</v>
+        <v>18.2</v>
       </c>
       <c r="S32" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>1298.8 (±27.9)</t>
+          <t>928.2 (±33.7)</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>195.2 (±27.9)</t>
+          <t>168.8 (±33.7)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>15.0% (±2.4%)</t>
+          <t>18.2% (±4.2%)</t>
         </is>
       </c>
       <c r="W32" t="n">
-        <v>83378</v>
+        <v>50874</v>
       </c>
       <c r="X32" t="n">
-        <v>234.1</v>
+        <v>331.8</v>
       </c>
       <c r="Y32" t="n">
-        <v>33.5</v>
+        <v>66.2</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>234.1(±33.5)</t>
+          <t>331.8(±66.2)</t>
         </is>
       </c>
     </row>
@@ -3415,87 +3415,87 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Gabrovo</t>
+          <t>Haskovo</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>2020</v>
       </c>
       <c r="D33" t="n">
-        <v>1097</v>
+        <v>1967</v>
       </c>
       <c r="E33" t="n">
-        <v>977</v>
+        <v>1701</v>
       </c>
       <c r="F33" t="n">
-        <v>907</v>
+        <v>1643</v>
       </c>
       <c r="G33" t="n">
-        <v>891</v>
+        <v>1645</v>
       </c>
       <c r="H33" t="n">
-        <v>897</v>
+        <v>1611</v>
       </c>
       <c r="I33" t="n">
-        <v>861</v>
+        <v>1550</v>
       </c>
       <c r="J33" t="n">
-        <v>928.1999999999997</v>
+        <v>1667.6</v>
       </c>
       <c r="K33" t="n">
-        <v>38.4</v>
+        <v>49.4</v>
       </c>
       <c r="L33" t="n">
         <v>1.96</v>
       </c>
       <c r="M33" t="n">
-        <v>33.7</v>
+        <v>43.3</v>
       </c>
       <c r="N33" t="n">
-        <v>894.4999999999997</v>
+        <v>1624.3</v>
       </c>
       <c r="O33" t="n">
-        <v>961.8999999999997</v>
+        <v>1710.9</v>
       </c>
       <c r="P33" t="n">
-        <v>168.8</v>
+        <v>299.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.7</v>
+        <v>43.3</v>
       </c>
       <c r="R33" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="S33" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>928.2 (±33.7)</t>
+          <t>1667.6 (±43.3)</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>168.8 (±33.7)</t>
+          <t>299.4 (±43.3)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>18.2% (±4.2%)</t>
+          <t>18.0% (±3.0%)</t>
         </is>
       </c>
       <c r="W33" t="n">
-        <v>51298</v>
+        <v>109127</v>
       </c>
       <c r="X33" t="n">
-        <v>329.1</v>
+        <v>274.4</v>
       </c>
       <c r="Y33" t="n">
-        <v>65.7</v>
+        <v>39.6</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>329.1(±65.7)</t>
+          <t>274.4(±39.6)</t>
         </is>
       </c>
     </row>
@@ -3507,87 +3507,87 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Haskovo</t>
+          <t>Kardzhali</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>2020</v>
       </c>
       <c r="D34" t="n">
-        <v>1967</v>
+        <v>1052</v>
       </c>
       <c r="E34" t="n">
-        <v>1701</v>
+        <v>807</v>
       </c>
       <c r="F34" t="n">
-        <v>1643</v>
+        <v>836</v>
       </c>
       <c r="G34" t="n">
-        <v>1645</v>
+        <v>780</v>
       </c>
       <c r="H34" t="n">
-        <v>1611</v>
+        <v>852</v>
       </c>
       <c r="I34" t="n">
-        <v>1550</v>
+        <v>800</v>
       </c>
       <c r="J34" t="n">
-        <v>1667.6</v>
+        <v>833.4</v>
       </c>
       <c r="K34" t="n">
-        <v>49.4</v>
+        <v>25.8</v>
       </c>
       <c r="L34" t="n">
         <v>1.96</v>
       </c>
       <c r="M34" t="n">
-        <v>43.3</v>
+        <v>22.6</v>
       </c>
       <c r="N34" t="n">
-        <v>1624.3</v>
+        <v>810.8</v>
       </c>
       <c r="O34" t="n">
-        <v>1710.9</v>
+        <v>856</v>
       </c>
       <c r="P34" t="n">
-        <v>299.4</v>
+        <v>218.6</v>
       </c>
       <c r="Q34" t="n">
-        <v>43.3</v>
+        <v>22.6</v>
       </c>
       <c r="R34" t="n">
-        <v>18</v>
+        <v>26.2</v>
       </c>
       <c r="S34" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>1667.6 (±43.3)</t>
+          <t>833.4 (±22.6)</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>299.4 (±43.3)</t>
+          <t>218.6 (±22.6)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>18.0% (±3.0%)</t>
+          <t>26.2% (±3.3%)</t>
         </is>
       </c>
       <c r="W34" t="n">
-        <v>109971</v>
+        <v>79430</v>
       </c>
       <c r="X34" t="n">
-        <v>272.3</v>
+        <v>275.2</v>
       </c>
       <c r="Y34" t="n">
-        <v>39.3</v>
+        <v>28.5</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>272.3(±39.3)</t>
+          <t>275.2(±28.5)</t>
         </is>
       </c>
     </row>
@@ -3599,87 +3599,87 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Kardzhali</t>
+          <t>Kyustendil</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>2020</v>
       </c>
       <c r="D35" t="n">
-        <v>1052</v>
+        <v>1289</v>
       </c>
       <c r="E35" t="n">
-        <v>807</v>
+        <v>1054</v>
       </c>
       <c r="F35" t="n">
-        <v>836</v>
+        <v>1062</v>
       </c>
       <c r="G35" t="n">
-        <v>780</v>
+        <v>1033</v>
       </c>
       <c r="H35" t="n">
-        <v>852</v>
+        <v>1005</v>
       </c>
       <c r="I35" t="n">
-        <v>800</v>
+        <v>1043</v>
       </c>
       <c r="J35" t="n">
-        <v>833.4</v>
+        <v>1060.2</v>
       </c>
       <c r="K35" t="n">
-        <v>25.8</v>
+        <v>19.8</v>
       </c>
       <c r="L35" t="n">
         <v>1.96</v>
       </c>
       <c r="M35" t="n">
-        <v>22.6</v>
+        <v>17.4</v>
       </c>
       <c r="N35" t="n">
-        <v>810.8</v>
+        <v>1042.8</v>
       </c>
       <c r="O35" t="n">
-        <v>856</v>
+        <v>1077.6</v>
       </c>
       <c r="P35" t="n">
-        <v>218.6</v>
+        <v>228.8</v>
       </c>
       <c r="Q35" t="n">
-        <v>22.6</v>
+        <v>17.4</v>
       </c>
       <c r="R35" t="n">
-        <v>26.2</v>
+        <v>21.6</v>
       </c>
       <c r="S35" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>833.4 (±22.6)</t>
+          <t>1060.2 (±17.4)</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>218.6 (±22.6)</t>
+          <t>228.8 (±17.4)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>26.2% (±3.3%)</t>
+          <t>21.6% (±2.0%)</t>
         </is>
       </c>
       <c r="W35" t="n">
-        <v>78102</v>
+        <v>56699</v>
       </c>
       <c r="X35" t="n">
-        <v>279.9</v>
+        <v>403.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>28.9</v>
+        <v>30.7</v>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>279.9(±28.9)</t>
+          <t>403.5(±30.7)</t>
         </is>
       </c>
     </row>
@@ -3691,87 +3691,87 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Kyustendil</t>
+          <t>Lovech</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>2020</v>
       </c>
       <c r="D36" t="n">
-        <v>1289</v>
+        <v>1224</v>
       </c>
       <c r="E36" t="n">
-        <v>1054</v>
+        <v>1091</v>
       </c>
       <c r="F36" t="n">
-        <v>1062</v>
+        <v>1097</v>
       </c>
       <c r="G36" t="n">
-        <v>1033</v>
+        <v>1086</v>
       </c>
       <c r="H36" t="n">
-        <v>1005</v>
+        <v>1053</v>
       </c>
       <c r="I36" t="n">
-        <v>1043</v>
+        <v>1058</v>
       </c>
       <c r="J36" t="n">
-        <v>1060.2</v>
+        <v>1098.6</v>
       </c>
       <c r="K36" t="n">
-        <v>19.8</v>
+        <v>18</v>
       </c>
       <c r="L36" t="n">
         <v>1.96</v>
       </c>
       <c r="M36" t="n">
-        <v>17.4</v>
+        <v>15.8</v>
       </c>
       <c r="N36" t="n">
-        <v>1042.8</v>
+        <v>1082.8</v>
       </c>
       <c r="O36" t="n">
-        <v>1077.6</v>
+        <v>1114.4</v>
       </c>
       <c r="P36" t="n">
-        <v>228.8</v>
+        <v>125.4</v>
       </c>
       <c r="Q36" t="n">
-        <v>17.4</v>
+        <v>15.8</v>
       </c>
       <c r="R36" t="n">
-        <v>21.6</v>
+        <v>11.4</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>1060.2 (±17.4)</t>
+          <t>1098.6 (±15.8)</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>228.8 (±17.4)</t>
+          <t>125.4 (±15.8)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>21.6% (±2.0%)</t>
+          <t>11.4% (±1.6%)</t>
         </is>
       </c>
       <c r="W36" t="n">
-        <v>56922</v>
+        <v>59580</v>
       </c>
       <c r="X36" t="n">
-        <v>402</v>
+        <v>210.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>30.5</v>
+        <v>26.5</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>402.0(±30.5)</t>
+          <t>210.5(±26.5)</t>
         </is>
       </c>
     </row>
@@ -3783,87 +3783,87 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Lovech</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>2020</v>
       </c>
       <c r="D37" t="n">
-        <v>1224</v>
+        <v>1470</v>
       </c>
       <c r="E37" t="n">
-        <v>1091</v>
+        <v>1252</v>
       </c>
       <c r="F37" t="n">
-        <v>1097</v>
+        <v>1244</v>
       </c>
       <c r="G37" t="n">
-        <v>1086</v>
+        <v>1104</v>
       </c>
       <c r="H37" t="n">
-        <v>1053</v>
+        <v>1144</v>
       </c>
       <c r="I37" t="n">
-        <v>1058</v>
+        <v>1105</v>
       </c>
       <c r="J37" t="n">
-        <v>1098.6</v>
+        <v>1193.8</v>
       </c>
       <c r="K37" t="n">
-        <v>18</v>
+        <v>65.5</v>
       </c>
       <c r="L37" t="n">
         <v>1.96</v>
       </c>
       <c r="M37" t="n">
-        <v>15.8</v>
+        <v>57.4</v>
       </c>
       <c r="N37" t="n">
-        <v>1082.8</v>
+        <v>1136.4</v>
       </c>
       <c r="O37" t="n">
-        <v>1114.4</v>
+        <v>1251.2</v>
       </c>
       <c r="P37" t="n">
-        <v>125.4</v>
+        <v>276.2</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.8</v>
+        <v>57.4</v>
       </c>
       <c r="R37" t="n">
-        <v>11.4</v>
+        <v>23.1</v>
       </c>
       <c r="S37" t="n">
-        <v>1.6</v>
+        <v>5.6</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>1098.6 (±15.8)</t>
+          <t>1193.8 (±57.4)</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>125.4 (±15.8)</t>
+          <t>276.2 (±57.4)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>11.4% (±1.6%)</t>
+          <t>23.1% (±5.6%)</t>
         </is>
       </c>
       <c r="W37" t="n">
-        <v>59658</v>
+        <v>61166</v>
       </c>
       <c r="X37" t="n">
-        <v>210.2</v>
+        <v>451.6</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.5</v>
+        <v>93.8</v>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>210.2(±26.5)</t>
+          <t>451.6(±93.8)</t>
         </is>
       </c>
     </row>
@@ -3875,87 +3875,87 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Pazardzhik</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>2020</v>
       </c>
       <c r="D38" t="n">
-        <v>1470</v>
+        <v>2230</v>
       </c>
       <c r="E38" t="n">
-        <v>1252</v>
+        <v>1722</v>
       </c>
       <c r="F38" t="n">
-        <v>1244</v>
+        <v>1658</v>
       </c>
       <c r="G38" t="n">
-        <v>1104</v>
+        <v>1626</v>
       </c>
       <c r="H38" t="n">
-        <v>1144</v>
+        <v>1640</v>
       </c>
       <c r="I38" t="n">
-        <v>1105</v>
+        <v>1645</v>
       </c>
       <c r="J38" t="n">
-        <v>1193.8</v>
+        <v>1689.4</v>
       </c>
       <c r="K38" t="n">
-        <v>65.5</v>
+        <v>33.5</v>
       </c>
       <c r="L38" t="n">
         <v>1.96</v>
       </c>
       <c r="M38" t="n">
-        <v>57.4</v>
+        <v>29.4</v>
       </c>
       <c r="N38" t="n">
-        <v>1136.4</v>
+        <v>1660</v>
       </c>
       <c r="O38" t="n">
-        <v>1251.2</v>
+        <v>1718.8</v>
       </c>
       <c r="P38" t="n">
-        <v>276.2</v>
+        <v>540.6</v>
       </c>
       <c r="Q38" t="n">
-        <v>57.4</v>
+        <v>29.4</v>
       </c>
       <c r="R38" t="n">
-        <v>23.1</v>
+        <v>32</v>
       </c>
       <c r="S38" t="n">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>1193.8 (±57.4)</t>
+          <t>1689.4 (±29.4)</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>276.2 (±57.4)</t>
+          <t>540.6 (±29.4)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>23.1% (±5.6%)</t>
+          <t>32.0% (±2.3%)</t>
         </is>
       </c>
       <c r="W38" t="n">
-        <v>62121</v>
+        <v>122821</v>
       </c>
       <c r="X38" t="n">
-        <v>444.6</v>
+        <v>440.2</v>
       </c>
       <c r="Y38" t="n">
-        <v>92.40000000000001</v>
+        <v>23.9</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>444.6(±92.4)</t>
+          <t>440.2(±23.9)</t>
         </is>
       </c>
     </row>
@@ -3967,87 +3967,87 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pazardzhik</t>
+          <t>Pernik</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>2020</v>
       </c>
       <c r="D39" t="n">
-        <v>2230</v>
+        <v>1274</v>
       </c>
       <c r="E39" t="n">
-        <v>1722</v>
+        <v>1064</v>
       </c>
       <c r="F39" t="n">
-        <v>1658</v>
+        <v>993</v>
       </c>
       <c r="G39" t="n">
-        <v>1626</v>
+        <v>997</v>
       </c>
       <c r="H39" t="n">
-        <v>1640</v>
+        <v>1008</v>
       </c>
       <c r="I39" t="n">
-        <v>1645</v>
+        <v>990</v>
       </c>
       <c r="J39" t="n">
-        <v>1689.4</v>
+        <v>1036</v>
       </c>
       <c r="K39" t="n">
-        <v>33.5</v>
+        <v>27.5</v>
       </c>
       <c r="L39" t="n">
         <v>1.96</v>
       </c>
       <c r="M39" t="n">
-        <v>29.4</v>
+        <v>24.1</v>
       </c>
       <c r="N39" t="n">
-        <v>1660</v>
+        <v>1011.9</v>
       </c>
       <c r="O39" t="n">
-        <v>1718.8</v>
+        <v>1060.1</v>
       </c>
       <c r="P39" t="n">
-        <v>540.6</v>
+        <v>238</v>
       </c>
       <c r="Q39" t="n">
-        <v>29.4</v>
+        <v>24.1</v>
       </c>
       <c r="R39" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="S39" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>1689.4 (±29.4)</t>
+          <t>1036.0 (±24.1)</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>540.6 (±29.4)</t>
+          <t>238.0 (±24.1)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>32.0% (±2.3%)</t>
+          <t>23.0% (±2.8%)</t>
         </is>
       </c>
       <c r="W39" t="n">
-        <v>123715</v>
+        <v>58550</v>
       </c>
       <c r="X39" t="n">
-        <v>437</v>
+        <v>406.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>23.7</v>
+        <v>41.2</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>437.0(±23.7)</t>
+          <t>406.5(±41.2)</t>
         </is>
       </c>
     </row>
@@ -4059,87 +4059,87 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Pernik</t>
+          <t>Pleven</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>2020</v>
       </c>
       <c r="D40" t="n">
-        <v>1274</v>
+        <v>2338</v>
       </c>
       <c r="E40" t="n">
-        <v>1064</v>
+        <v>2001</v>
       </c>
       <c r="F40" t="n">
-        <v>993</v>
+        <v>1914</v>
       </c>
       <c r="G40" t="n">
-        <v>997</v>
+        <v>1796</v>
       </c>
       <c r="H40" t="n">
-        <v>1008</v>
+        <v>1930</v>
       </c>
       <c r="I40" t="n">
-        <v>990</v>
+        <v>1930</v>
       </c>
       <c r="J40" t="n">
-        <v>1036</v>
+        <v>1949.399999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>27.5</v>
+        <v>66.3</v>
       </c>
       <c r="L40" t="n">
         <v>1.96</v>
       </c>
       <c r="M40" t="n">
-        <v>24.1</v>
+        <v>58.1</v>
       </c>
       <c r="N40" t="n">
-        <v>1011.9</v>
+        <v>1891.299999999999</v>
       </c>
       <c r="O40" t="n">
-        <v>1060.1</v>
+        <v>2007.499999999999</v>
       </c>
       <c r="P40" t="n">
-        <v>238</v>
+        <v>388.6</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.1</v>
+        <v>58.1</v>
       </c>
       <c r="R40" t="n">
-        <v>23</v>
+        <v>19.9</v>
       </c>
       <c r="S40" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>1036.0 (±24.1)</t>
+          <t>1949.4 (±58.1)</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>238.0 (±24.1)</t>
+          <t>388.6 (±58.1)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>23.0% (±2.8%)</t>
+          <t>19.9% (±3.4%)</t>
         </is>
       </c>
       <c r="W40" t="n">
-        <v>57932</v>
+        <v>113082</v>
       </c>
       <c r="X40" t="n">
-        <v>410.8</v>
+        <v>343.6</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.6</v>
+        <v>51.4</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>410.8(±41.6)</t>
+          <t>343.6(±51.4)</t>
         </is>
       </c>
     </row>
@@ -4151,87 +4151,87 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Pleven</t>
+          <t>Plovdiv</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>2020</v>
       </c>
       <c r="D41" t="n">
-        <v>2338</v>
+        <v>5181</v>
       </c>
       <c r="E41" t="n">
-        <v>2001</v>
+        <v>4231</v>
       </c>
       <c r="F41" t="n">
-        <v>1914</v>
+        <v>4079</v>
       </c>
       <c r="G41" t="n">
-        <v>1796</v>
+        <v>3977</v>
       </c>
       <c r="H41" t="n">
-        <v>1930</v>
+        <v>4092</v>
       </c>
       <c r="I41" t="n">
-        <v>1930</v>
+        <v>3973</v>
       </c>
       <c r="J41" t="n">
-        <v>1949.399999999999</v>
+        <v>4153.6</v>
       </c>
       <c r="K41" t="n">
-        <v>66.3</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="L41" t="n">
         <v>1.96</v>
       </c>
       <c r="M41" t="n">
-        <v>58.1</v>
+        <v>82.7</v>
       </c>
       <c r="N41" t="n">
-        <v>1891.299999999999</v>
+        <v>4070.900000000001</v>
       </c>
       <c r="O41" t="n">
-        <v>2007.499999999999</v>
+        <v>4236.3</v>
       </c>
       <c r="P41" t="n">
-        <v>388.6</v>
+        <v>1027.4</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.1</v>
+        <v>82.7</v>
       </c>
       <c r="R41" t="n">
-        <v>19.9</v>
+        <v>24.7</v>
       </c>
       <c r="S41" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>1949.4 (±58.1)</t>
+          <t>4153.6 (±82.7)</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>388.6 (±58.1)</t>
+          <t>1027.4 (±82.7)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>19.9% (±3.4%)</t>
+          <t>24.7% (±2.4%)</t>
         </is>
       </c>
       <c r="W41" t="n">
-        <v>114729</v>
+        <v>319851</v>
       </c>
       <c r="X41" t="n">
-        <v>338.7</v>
+        <v>321.2</v>
       </c>
       <c r="Y41" t="n">
-        <v>50.7</v>
+        <v>25.9</v>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>338.7(±50.7)</t>
+          <t>321.2(±25.9)</t>
         </is>
       </c>
     </row>
@@ -4243,87 +4243,87 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Plovdiv</t>
+          <t>Razgrad</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>2020</v>
       </c>
       <c r="D42" t="n">
-        <v>5181</v>
+        <v>1077</v>
       </c>
       <c r="E42" t="n">
-        <v>4231</v>
+        <v>837</v>
       </c>
       <c r="F42" t="n">
-        <v>4079</v>
+        <v>802</v>
       </c>
       <c r="G42" t="n">
-        <v>3977</v>
+        <v>827</v>
       </c>
       <c r="H42" t="n">
-        <v>4092</v>
+        <v>828</v>
       </c>
       <c r="I42" t="n">
-        <v>3973</v>
+        <v>787</v>
       </c>
       <c r="J42" t="n">
-        <v>4153.6</v>
+        <v>825.7999999999998</v>
       </c>
       <c r="K42" t="n">
-        <v>94.40000000000001</v>
+        <v>18.7</v>
       </c>
       <c r="L42" t="n">
         <v>1.96</v>
       </c>
       <c r="M42" t="n">
-        <v>82.7</v>
+        <v>16.4</v>
       </c>
       <c r="N42" t="n">
-        <v>4070.900000000001</v>
+        <v>809.3999999999999</v>
       </c>
       <c r="O42" t="n">
-        <v>4236.3</v>
+        <v>842.1999999999998</v>
       </c>
       <c r="P42" t="n">
-        <v>1027.4</v>
+        <v>251.2</v>
       </c>
       <c r="Q42" t="n">
-        <v>82.7</v>
+        <v>16.4</v>
       </c>
       <c r="R42" t="n">
-        <v>24.7</v>
+        <v>30.4</v>
       </c>
       <c r="S42" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>4153.6 (±82.7)</t>
+          <t>825.8 (±16.4)</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>1027.4 (±82.7)</t>
+          <t>251.2 (±16.4)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>24.7% (±2.4%)</t>
+          <t>30.4% (±2.5%)</t>
         </is>
       </c>
       <c r="W42" t="n">
-        <v>320136</v>
+        <v>53467</v>
       </c>
       <c r="X42" t="n">
-        <v>320.9</v>
+        <v>469.8</v>
       </c>
       <c r="Y42" t="n">
-        <v>25.9</v>
+        <v>30.7</v>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>320.9(±25.9)</t>
+          <t>469.8(±30.7)</t>
         </is>
       </c>
     </row>
@@ -4335,87 +4335,87 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Razgrad</t>
+          <t>Ruse</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>2020</v>
       </c>
       <c r="D43" t="n">
-        <v>1077</v>
+        <v>2024</v>
       </c>
       <c r="E43" t="n">
-        <v>837</v>
+        <v>1579</v>
       </c>
       <c r="F43" t="n">
-        <v>802</v>
+        <v>1610</v>
       </c>
       <c r="G43" t="n">
-        <v>827</v>
+        <v>1441</v>
       </c>
       <c r="H43" t="n">
-        <v>828</v>
+        <v>1618</v>
       </c>
       <c r="I43" t="n">
-        <v>787</v>
+        <v>1536</v>
       </c>
       <c r="J43" t="n">
-        <v>825.7999999999998</v>
+        <v>1591.2</v>
       </c>
       <c r="K43" t="n">
-        <v>18.7</v>
+        <v>64.7</v>
       </c>
       <c r="L43" t="n">
         <v>1.96</v>
       </c>
       <c r="M43" t="n">
-        <v>16.4</v>
+        <v>56.7</v>
       </c>
       <c r="N43" t="n">
-        <v>809.3999999999999</v>
+        <v>1534.5</v>
       </c>
       <c r="O43" t="n">
-        <v>842.1999999999998</v>
+        <v>1647.9</v>
       </c>
       <c r="P43" t="n">
-        <v>251.2</v>
+        <v>432.8</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.4</v>
+        <v>56.7</v>
       </c>
       <c r="R43" t="n">
-        <v>30.4</v>
+        <v>27.2</v>
       </c>
       <c r="S43" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>825.8 (±16.4)</t>
+          <t>1591.2 (±56.7)</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>251.2 (±16.4)</t>
+          <t>432.8 (±56.7)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>30.4% (±2.5%)</t>
+          <t>27.2% (±4.4%)</t>
         </is>
       </c>
       <c r="W43" t="n">
-        <v>54012</v>
+        <v>103521</v>
       </c>
       <c r="X43" t="n">
-        <v>465.1</v>
+        <v>418.1</v>
       </c>
       <c r="Y43" t="n">
-        <v>30.3</v>
+        <v>54.8</v>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>465.1(±30.3)</t>
+          <t>418.1(±54.8)</t>
         </is>
       </c>
     </row>
@@ -4427,87 +4427,87 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ruse</t>
+          <t>Shumen</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>2020</v>
       </c>
       <c r="D44" t="n">
-        <v>2024</v>
+        <v>1401</v>
       </c>
       <c r="E44" t="n">
-        <v>1579</v>
+        <v>1185</v>
       </c>
       <c r="F44" t="n">
-        <v>1610</v>
+        <v>1076</v>
       </c>
       <c r="G44" t="n">
-        <v>1441</v>
+        <v>1050</v>
       </c>
       <c r="H44" t="n">
-        <v>1618</v>
+        <v>1149</v>
       </c>
       <c r="I44" t="n">
-        <v>1536</v>
+        <v>1144</v>
       </c>
       <c r="J44" t="n">
-        <v>1591.2</v>
+        <v>1136.8</v>
       </c>
       <c r="K44" t="n">
-        <v>64.7</v>
+        <v>49.9</v>
       </c>
       <c r="L44" t="n">
         <v>1.96</v>
       </c>
       <c r="M44" t="n">
-        <v>56.7</v>
+        <v>43.7</v>
       </c>
       <c r="N44" t="n">
-        <v>1534.5</v>
+        <v>1093.1</v>
       </c>
       <c r="O44" t="n">
-        <v>1647.9</v>
+        <v>1180.5</v>
       </c>
       <c r="P44" t="n">
-        <v>432.8</v>
+        <v>264.2</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.7</v>
+        <v>43.7</v>
       </c>
       <c r="R44" t="n">
-        <v>27.2</v>
+        <v>23.2</v>
       </c>
       <c r="S44" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>1591.2 (±56.7)</t>
+          <t>1136.8 (±43.7)</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>432.8 (±56.7)</t>
+          <t>264.2 (±43.7)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>27.2% (±4.4%)</t>
+          <t>23.2% (±4.5%)</t>
         </is>
       </c>
       <c r="W44" t="n">
-        <v>105026</v>
+        <v>83696</v>
       </c>
       <c r="X44" t="n">
-        <v>412.1</v>
+        <v>315.7</v>
       </c>
       <c r="Y44" t="n">
-        <v>54</v>
+        <v>52.2</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>412.1(±54.0)</t>
+          <t>315.7(±52.2)</t>
         </is>
       </c>
     </row>
@@ -4519,87 +4519,87 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Shumen</t>
+          <t>Silistra</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>2020</v>
       </c>
       <c r="D45" t="n">
-        <v>1401</v>
+        <v>1100</v>
       </c>
       <c r="E45" t="n">
-        <v>1185</v>
+        <v>892</v>
       </c>
       <c r="F45" t="n">
-        <v>1076</v>
+        <v>822</v>
       </c>
       <c r="G45" t="n">
-        <v>1050</v>
+        <v>821</v>
       </c>
       <c r="H45" t="n">
-        <v>1149</v>
+        <v>885</v>
       </c>
       <c r="I45" t="n">
-        <v>1144</v>
+        <v>853</v>
       </c>
       <c r="J45" t="n">
-        <v>1136.8</v>
+        <v>871.4000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>49.9</v>
+        <v>30.1</v>
       </c>
       <c r="L45" t="n">
         <v>1.96</v>
       </c>
       <c r="M45" t="n">
-        <v>43.7</v>
+        <v>26.4</v>
       </c>
       <c r="N45" t="n">
-        <v>1093.1</v>
+        <v>845.0000000000001</v>
       </c>
       <c r="O45" t="n">
-        <v>1180.5</v>
+        <v>897.8000000000001</v>
       </c>
       <c r="P45" t="n">
-        <v>264.2</v>
+        <v>228.6</v>
       </c>
       <c r="Q45" t="n">
-        <v>43.7</v>
+        <v>26.4</v>
       </c>
       <c r="R45" t="n">
-        <v>23.2</v>
+        <v>26.2</v>
       </c>
       <c r="S45" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>1136.8 (±43.7)</t>
+          <t>871.4 (±26.4)</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>264.2 (±43.7)</t>
+          <t>228.6 (±26.4)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>23.2% (±4.5%)</t>
+          <t>26.2% (±3.7%)</t>
         </is>
       </c>
       <c r="W45" t="n">
-        <v>83922</v>
+        <v>52049</v>
       </c>
       <c r="X45" t="n">
-        <v>314.8</v>
+        <v>439.2</v>
       </c>
       <c r="Y45" t="n">
-        <v>52.1</v>
+        <v>50.7</v>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>314.8(±52.1)</t>
+          <t>439.2(±50.7)</t>
         </is>
       </c>
     </row>
@@ -4611,87 +4611,87 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Silistra</t>
+          <t>Sliven</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>2020</v>
       </c>
       <c r="D46" t="n">
-        <v>1100</v>
+        <v>1435</v>
       </c>
       <c r="E46" t="n">
-        <v>892</v>
+        <v>1212</v>
       </c>
       <c r="F46" t="n">
-        <v>822</v>
+        <v>1222</v>
       </c>
       <c r="G46" t="n">
-        <v>821</v>
+        <v>1187</v>
       </c>
       <c r="H46" t="n">
-        <v>885</v>
+        <v>1258</v>
       </c>
       <c r="I46" t="n">
-        <v>853</v>
+        <v>1149</v>
       </c>
       <c r="J46" t="n">
-        <v>871.4000000000001</v>
+        <v>1228</v>
       </c>
       <c r="K46" t="n">
-        <v>30.1</v>
+        <v>36.3</v>
       </c>
       <c r="L46" t="n">
         <v>1.96</v>
       </c>
       <c r="M46" t="n">
-        <v>26.4</v>
+        <v>31.8</v>
       </c>
       <c r="N46" t="n">
-        <v>845.0000000000001</v>
+        <v>1196.2</v>
       </c>
       <c r="O46" t="n">
-        <v>897.8000000000001</v>
+        <v>1259.8</v>
       </c>
       <c r="P46" t="n">
-        <v>228.6</v>
+        <v>207</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.4</v>
+        <v>31.8</v>
       </c>
       <c r="R46" t="n">
-        <v>26.2</v>
+        <v>16.9</v>
       </c>
       <c r="S46" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>871.4 (±26.4)</t>
+          <t>1228.0 (±31.8)</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>228.6 (±26.4)</t>
+          <t>207.0 (±31.8)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>26.2% (±3.7%)</t>
+          <t>16.9% (±3.0%)</t>
         </is>
       </c>
       <c r="W46" t="n">
-        <v>52738</v>
+        <v>88576</v>
       </c>
       <c r="X46" t="n">
-        <v>433.5</v>
+        <v>233.7</v>
       </c>
       <c r="Y46" t="n">
-        <v>50</v>
+        <v>35.9</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>433.5(±50.0)</t>
+          <t>233.7(±35.9)</t>
         </is>
       </c>
     </row>
@@ -4703,87 +4703,87 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sliven</t>
+          <t>Smolyan</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>2020</v>
       </c>
       <c r="D47" t="n">
-        <v>1435</v>
+        <v>960</v>
       </c>
       <c r="E47" t="n">
-        <v>1212</v>
+        <v>683</v>
       </c>
       <c r="F47" t="n">
-        <v>1222</v>
+        <v>701</v>
       </c>
       <c r="G47" t="n">
-        <v>1187</v>
+        <v>750</v>
       </c>
       <c r="H47" t="n">
-        <v>1258</v>
+        <v>727</v>
       </c>
       <c r="I47" t="n">
-        <v>1149</v>
+        <v>704</v>
       </c>
       <c r="J47" t="n">
-        <v>1228</v>
+        <v>720.2</v>
       </c>
       <c r="K47" t="n">
-        <v>36.3</v>
+        <v>23.2</v>
       </c>
       <c r="L47" t="n">
         <v>1.96</v>
       </c>
       <c r="M47" t="n">
-        <v>31.8</v>
+        <v>20.3</v>
       </c>
       <c r="N47" t="n">
-        <v>1196.2</v>
+        <v>699.9000000000001</v>
       </c>
       <c r="O47" t="n">
-        <v>1259.8</v>
+        <v>740.5</v>
       </c>
       <c r="P47" t="n">
-        <v>207</v>
+        <v>239.8</v>
       </c>
       <c r="Q47" t="n">
-        <v>31.8</v>
+        <v>20.3</v>
       </c>
       <c r="R47" t="n">
-        <v>16.9</v>
+        <v>33.3</v>
       </c>
       <c r="S47" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>1228.0 (±31.8)</t>
+          <t>720.2 (±20.3)</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>207.0 (±31.8)</t>
+          <t>239.8 (±20.3)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>16.9% (±3.0%)</t>
+          <t>33.3% (±3.7%)</t>
         </is>
       </c>
       <c r="W47" t="n">
-        <v>89422</v>
+        <v>48940</v>
       </c>
       <c r="X47" t="n">
-        <v>231.5</v>
+        <v>490</v>
       </c>
       <c r="Y47" t="n">
-        <v>35.5</v>
+        <v>41.5</v>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>231.5(±35.5)</t>
+          <t>490.0(±41.5)</t>
         </is>
       </c>
     </row>
@@ -4795,87 +4795,87 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Smolyan</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>2020</v>
       </c>
       <c r="D48" t="n">
-        <v>960</v>
+        <v>2305</v>
       </c>
       <c r="E48" t="n">
-        <v>683</v>
+        <v>1809</v>
       </c>
       <c r="F48" t="n">
-        <v>701</v>
+        <v>1786</v>
       </c>
       <c r="G48" t="n">
-        <v>750</v>
+        <v>1816</v>
       </c>
       <c r="H48" t="n">
-        <v>727</v>
+        <v>1813</v>
       </c>
       <c r="I48" t="n">
-        <v>704</v>
+        <v>1763</v>
       </c>
       <c r="J48" t="n">
-        <v>720.2</v>
+        <v>1834.199999999999</v>
       </c>
       <c r="K48" t="n">
-        <v>23.2</v>
+        <v>20.2</v>
       </c>
       <c r="L48" t="n">
         <v>1.96</v>
       </c>
       <c r="M48" t="n">
-        <v>20.3</v>
+        <v>17.7</v>
       </c>
       <c r="N48" t="n">
-        <v>699.9000000000001</v>
+        <v>1816.499999999999</v>
       </c>
       <c r="O48" t="n">
-        <v>740.5</v>
+        <v>1851.899999999999</v>
       </c>
       <c r="P48" t="n">
-        <v>239.8</v>
+        <v>470.8</v>
       </c>
       <c r="Q48" t="n">
-        <v>20.3</v>
+        <v>17.7</v>
       </c>
       <c r="R48" t="n">
-        <v>33.3</v>
+        <v>25.7</v>
       </c>
       <c r="S48" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>720.2 (±20.3)</t>
+          <t>1834.2 (±17.7)</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>239.8 (±20.3)</t>
+          <t>470.8 (±17.7)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>33.3% (±3.7%)</t>
+          <t>25.7% (±1.2%)</t>
         </is>
       </c>
       <c r="W48" t="n">
-        <v>49930</v>
+        <v>117261</v>
       </c>
       <c r="X48" t="n">
-        <v>480.3</v>
+        <v>401.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>40.6</v>
+        <v>15.1</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>480.3(±40.6)</t>
+          <t>401.5(±15.1)</t>
         </is>
       </c>
     </row>
@@ -4887,87 +4887,87 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Stara Zagora</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>2020</v>
       </c>
       <c r="D49" t="n">
-        <v>2305</v>
+        <v>2682</v>
       </c>
       <c r="E49" t="n">
-        <v>1809</v>
+        <v>2254</v>
       </c>
       <c r="F49" t="n">
-        <v>1786</v>
+        <v>2225</v>
       </c>
       <c r="G49" t="n">
-        <v>1816</v>
+        <v>2186</v>
       </c>
       <c r="H49" t="n">
-        <v>1813</v>
+        <v>2194</v>
       </c>
       <c r="I49" t="n">
-        <v>1763</v>
+        <v>2145</v>
       </c>
       <c r="J49" t="n">
-        <v>1834.199999999999</v>
+        <v>2246.4</v>
       </c>
       <c r="K49" t="n">
-        <v>20.2</v>
+        <v>36.9</v>
       </c>
       <c r="L49" t="n">
         <v>1.96</v>
       </c>
       <c r="M49" t="n">
-        <v>17.7</v>
+        <v>32.3</v>
       </c>
       <c r="N49" t="n">
-        <v>1816.499999999999</v>
+        <v>2214.1</v>
       </c>
       <c r="O49" t="n">
-        <v>1851.899999999999</v>
+        <v>2278.7</v>
       </c>
       <c r="P49" t="n">
-        <v>470.8</v>
+        <v>435.6</v>
       </c>
       <c r="Q49" t="n">
-        <v>17.7</v>
+        <v>32.3</v>
       </c>
       <c r="R49" t="n">
-        <v>25.7</v>
+        <v>19.4</v>
       </c>
       <c r="S49" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>1834.2 (±17.7)</t>
+          <t>2246.4 (±32.3)</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>470.8 (±17.7)</t>
+          <t>435.6 (±32.3)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>25.7% (±1.2%)</t>
+          <t>19.4% (±1.7%)</t>
         </is>
       </c>
       <c r="W49" t="n">
-        <v>111249</v>
+        <v>150524</v>
       </c>
       <c r="X49" t="n">
-        <v>423.2</v>
+        <v>289.4</v>
       </c>
       <c r="Y49" t="n">
-        <v>15.9</v>
+        <v>21.4</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>423.2(±15.9)</t>
+          <t>289.4(±21.4)</t>
         </is>
       </c>
     </row>
@@ -4979,87 +4979,87 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sofia (stolitsa)</t>
+          <t>Targovishte</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>2020</v>
       </c>
       <c r="D50" t="n">
-        <v>7853</v>
+        <v>956</v>
       </c>
       <c r="E50" t="n">
-        <v>6335</v>
+        <v>845</v>
       </c>
       <c r="F50" t="n">
-        <v>6243</v>
+        <v>772</v>
       </c>
       <c r="G50" t="n">
-        <v>5997</v>
+        <v>779</v>
       </c>
       <c r="H50" t="n">
-        <v>6121</v>
+        <v>752</v>
       </c>
       <c r="I50" t="n">
-        <v>6129</v>
+        <v>731</v>
       </c>
       <c r="J50" t="n">
-        <v>6295.400000000001</v>
+        <v>792.5999999999998</v>
       </c>
       <c r="K50" t="n">
-        <v>115.3</v>
+        <v>38.4</v>
       </c>
       <c r="L50" t="n">
         <v>1.96</v>
       </c>
       <c r="M50" t="n">
-        <v>101.1</v>
+        <v>33.7</v>
       </c>
       <c r="N50" t="n">
-        <v>6194.3</v>
+        <v>758.8999999999997</v>
       </c>
       <c r="O50" t="n">
-        <v>6396.500000000001</v>
+        <v>826.2999999999998</v>
       </c>
       <c r="P50" t="n">
-        <v>1557.6</v>
+        <v>163.4</v>
       </c>
       <c r="Q50" t="n">
-        <v>101.1</v>
+        <v>33.7</v>
       </c>
       <c r="R50" t="n">
-        <v>24.7</v>
+        <v>20.6</v>
       </c>
       <c r="S50" t="n">
-        <v>1.9</v>
+        <v>4.9</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>6295.4 (±101.1)</t>
+          <t>792.6 (±33.7)</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>1557.6 (±101.1)</t>
+          <t>163.4 (±33.7)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>24.7% (±1.9%)</t>
+          <t>20.6% (±4.9%)</t>
         </is>
       </c>
       <c r="W50" t="n">
-        <v>637465</v>
+        <v>53665</v>
       </c>
       <c r="X50" t="n">
-        <v>244.3</v>
+        <v>304.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>15.9</v>
+        <v>62.8</v>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>244.3(±15.9)</t>
+          <t>304.5(±62.8)</t>
         </is>
       </c>
     </row>
@@ -5071,87 +5071,87 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Stara Zagora</t>
+          <t>Varna</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>2020</v>
       </c>
       <c r="D51" t="n">
-        <v>2682</v>
+        <v>3108</v>
       </c>
       <c r="E51" t="n">
-        <v>2254</v>
+        <v>2658</v>
       </c>
       <c r="F51" t="n">
-        <v>2225</v>
+        <v>2640</v>
       </c>
       <c r="G51" t="n">
-        <v>2186</v>
+        <v>2558</v>
       </c>
       <c r="H51" t="n">
-        <v>2194</v>
+        <v>2566</v>
       </c>
       <c r="I51" t="n">
-        <v>2145</v>
+        <v>2490</v>
       </c>
       <c r="J51" t="n">
-        <v>2246.4</v>
+        <v>2635.200000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>36.9</v>
+        <v>60.7</v>
       </c>
       <c r="L51" t="n">
         <v>1.96</v>
       </c>
       <c r="M51" t="n">
-        <v>32.3</v>
+        <v>53.2</v>
       </c>
       <c r="N51" t="n">
-        <v>2214.1</v>
+        <v>2582.000000000001</v>
       </c>
       <c r="O51" t="n">
-        <v>2278.7</v>
+        <v>2688.400000000001</v>
       </c>
       <c r="P51" t="n">
-        <v>435.6</v>
+        <v>472.8</v>
       </c>
       <c r="Q51" t="n">
-        <v>32.3</v>
+        <v>53.2</v>
       </c>
       <c r="R51" t="n">
-        <v>19.4</v>
+        <v>17.9</v>
       </c>
       <c r="S51" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>2246.4 (±32.3)</t>
+          <t>2635.2 (±53.2)</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>435.6 (±32.3)</t>
+          <t>472.8 (±53.2)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>19.4% (±1.7%)</t>
+          <t>17.9% (±2.3%)</t>
         </is>
       </c>
       <c r="W51" t="n">
-        <v>151611</v>
+        <v>228625</v>
       </c>
       <c r="X51" t="n">
-        <v>287.3</v>
+        <v>206.8</v>
       </c>
       <c r="Y51" t="n">
-        <v>21.3</v>
+        <v>23.3</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>287.3(±21.3)</t>
+          <t>206.8(±23.3)</t>
         </is>
       </c>
     </row>
@@ -5163,87 +5163,87 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Targovishte</t>
+          <t>Veliko Tarnovo</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>2020</v>
       </c>
       <c r="D52" t="n">
-        <v>956</v>
+        <v>2036</v>
       </c>
       <c r="E52" t="n">
-        <v>845</v>
+        <v>1749</v>
       </c>
       <c r="F52" t="n">
-        <v>772</v>
+        <v>1754</v>
       </c>
       <c r="G52" t="n">
-        <v>779</v>
+        <v>1725</v>
       </c>
       <c r="H52" t="n">
-        <v>752</v>
+        <v>1636</v>
       </c>
       <c r="I52" t="n">
-        <v>731</v>
+        <v>1654</v>
       </c>
       <c r="J52" t="n">
-        <v>792.5999999999998</v>
+        <v>1739.6</v>
       </c>
       <c r="K52" t="n">
-        <v>38.4</v>
+        <v>49.2</v>
       </c>
       <c r="L52" t="n">
         <v>1.96</v>
       </c>
       <c r="M52" t="n">
-        <v>33.7</v>
+        <v>43.1</v>
       </c>
       <c r="N52" t="n">
-        <v>758.8999999999997</v>
+        <v>1696.5</v>
       </c>
       <c r="O52" t="n">
-        <v>826.2999999999998</v>
+        <v>1782.7</v>
       </c>
       <c r="P52" t="n">
-        <v>163.4</v>
+        <v>296.4</v>
       </c>
       <c r="Q52" t="n">
-        <v>33.7</v>
+        <v>43.1</v>
       </c>
       <c r="R52" t="n">
-        <v>20.6</v>
+        <v>17</v>
       </c>
       <c r="S52" t="n">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>792.6 (±33.7)</t>
+          <t>1739.6 (±43.1)</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>163.4 (±33.7)</t>
+          <t>296.4 (±43.1)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>20.6% (±4.9%)</t>
+          <t>17.0% (±2.8%)</t>
         </is>
       </c>
       <c r="W52" t="n">
-        <v>54164</v>
+        <v>110803</v>
       </c>
       <c r="X52" t="n">
-        <v>301.7</v>
+        <v>267.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>62.2</v>
+        <v>38.9</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>301.7(±62.2)</t>
+          <t>267.5(±38.9)</t>
         </is>
       </c>
     </row>
@@ -5255,87 +5255,87 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Varna</t>
+          <t>Vidin</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>2020</v>
       </c>
       <c r="D53" t="n">
-        <v>3108</v>
+        <v>1005</v>
       </c>
       <c r="E53" t="n">
-        <v>2658</v>
+        <v>874</v>
       </c>
       <c r="F53" t="n">
-        <v>2640</v>
+        <v>819</v>
       </c>
       <c r="G53" t="n">
-        <v>2558</v>
+        <v>783</v>
       </c>
       <c r="H53" t="n">
-        <v>2566</v>
+        <v>824</v>
       </c>
       <c r="I53" t="n">
-        <v>2490</v>
+        <v>766</v>
       </c>
       <c r="J53" t="n">
-        <v>2635.200000000001</v>
+        <v>827.6000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>60.7</v>
+        <v>37.4</v>
       </c>
       <c r="L53" t="n">
         <v>1.96</v>
       </c>
       <c r="M53" t="n">
-        <v>53.2</v>
+        <v>32.8</v>
       </c>
       <c r="N53" t="n">
-        <v>2582.000000000001</v>
+        <v>794.8000000000002</v>
       </c>
       <c r="O53" t="n">
-        <v>2688.400000000001</v>
+        <v>860.4000000000001</v>
       </c>
       <c r="P53" t="n">
-        <v>472.8</v>
+        <v>177.4</v>
       </c>
       <c r="Q53" t="n">
-        <v>53.2</v>
+        <v>32.8</v>
       </c>
       <c r="R53" t="n">
-        <v>17.9</v>
+        <v>21.4</v>
       </c>
       <c r="S53" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>2635.2 (±53.2)</t>
+          <t>827.6 (±32.8)</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>472.8 (±53.2)</t>
+          <t>177.4 (±32.8)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>17.9% (±2.3%)</t>
+          <t>21.4% (±4.6%)</t>
         </is>
       </c>
       <c r="W53" t="n">
-        <v>228712</v>
+        <v>39487</v>
       </c>
       <c r="X53" t="n">
-        <v>206.7</v>
+        <v>449.3</v>
       </c>
       <c r="Y53" t="n">
-        <v>23.3</v>
+        <v>83</v>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>206.7(±23.3)</t>
+          <t>449.3(±83.0)</t>
         </is>
       </c>
     </row>
@@ -5347,87 +5347,87 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Veliko Tarnovo</t>
+          <t>Vratsa</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>2020</v>
       </c>
       <c r="D54" t="n">
-        <v>2036</v>
+        <v>1624</v>
       </c>
       <c r="E54" t="n">
-        <v>1749</v>
+        <v>1455</v>
       </c>
       <c r="F54" t="n">
-        <v>1754</v>
+        <v>1330</v>
       </c>
       <c r="G54" t="n">
-        <v>1725</v>
+        <v>1336</v>
       </c>
       <c r="H54" t="n">
-        <v>1636</v>
+        <v>1303</v>
       </c>
       <c r="I54" t="n">
-        <v>1654</v>
+        <v>1337</v>
       </c>
       <c r="J54" t="n">
-        <v>1739.6</v>
+        <v>1377</v>
       </c>
       <c r="K54" t="n">
-        <v>49.2</v>
+        <v>52.9</v>
       </c>
       <c r="L54" t="n">
         <v>1.96</v>
       </c>
       <c r="M54" t="n">
-        <v>43.1</v>
+        <v>46.4</v>
       </c>
       <c r="N54" t="n">
-        <v>1696.5</v>
+        <v>1330.6</v>
       </c>
       <c r="O54" t="n">
-        <v>1782.7</v>
+        <v>1423.400000000001</v>
       </c>
       <c r="P54" t="n">
-        <v>296.4</v>
+        <v>247</v>
       </c>
       <c r="Q54" t="n">
-        <v>43.1</v>
+        <v>46.4</v>
       </c>
       <c r="R54" t="n">
-        <v>17</v>
+        <v>17.9</v>
       </c>
       <c r="S54" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>1739.6 (±43.1)</t>
+          <t>1377.0 (±46.4)</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>296.4 (±43.1)</t>
+          <t>247.0 (±46.4)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>17.0% (±2.8%)</t>
+          <t>17.9% (±3.8%)</t>
         </is>
       </c>
       <c r="W54" t="n">
-        <v>112401</v>
+        <v>77196</v>
       </c>
       <c r="X54" t="n">
-        <v>263.7</v>
+        <v>320</v>
       </c>
       <c r="Y54" t="n">
-        <v>38.3</v>
+        <v>60.1</v>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>263.7(±38.3)</t>
+          <t>320.0(±60.1)</t>
         </is>
       </c>
     </row>
@@ -5439,271 +5439,271 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Vidin</t>
+          <t>Yambol</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>2020</v>
       </c>
       <c r="D55" t="n">
-        <v>1005</v>
+        <v>1070</v>
       </c>
       <c r="E55" t="n">
-        <v>874</v>
+        <v>997</v>
       </c>
       <c r="F55" t="n">
-        <v>819</v>
+        <v>913</v>
       </c>
       <c r="G55" t="n">
-        <v>783</v>
+        <v>897</v>
       </c>
       <c r="H55" t="n">
-        <v>824</v>
+        <v>958</v>
       </c>
       <c r="I55" t="n">
-        <v>766</v>
+        <v>866</v>
       </c>
       <c r="J55" t="n">
-        <v>827.6000000000001</v>
+        <v>940.6000000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>37.4</v>
+        <v>46.2</v>
       </c>
       <c r="L55" t="n">
         <v>1.96</v>
       </c>
       <c r="M55" t="n">
-        <v>32.8</v>
+        <v>40.5</v>
       </c>
       <c r="N55" t="n">
-        <v>794.8000000000002</v>
+        <v>900.1000000000001</v>
       </c>
       <c r="O55" t="n">
-        <v>860.4000000000001</v>
+        <v>981.1000000000001</v>
       </c>
       <c r="P55" t="n">
-        <v>177.4</v>
+        <v>129.4</v>
       </c>
       <c r="Q55" t="n">
-        <v>32.8</v>
+        <v>40.5</v>
       </c>
       <c r="R55" t="n">
-        <v>21.4</v>
+        <v>13.8</v>
       </c>
       <c r="S55" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>827.6 (±32.8)</t>
+          <t>940.6 (±40.5)</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>177.4 (±32.8)</t>
+          <t>129.4 (±40.5)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>21.4% (±4.6%)</t>
+          <t>13.8% (±4.7%)</t>
         </is>
       </c>
       <c r="W55" t="n">
-        <v>40369</v>
+        <v>56961</v>
       </c>
       <c r="X55" t="n">
-        <v>439.4</v>
+        <v>227.2</v>
       </c>
       <c r="Y55" t="n">
-        <v>81.3</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>439.4(±81.3)</t>
+          <t>227.2(±71.1)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Vratsa</t>
+          <t>Blagoevgrad</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>2020</v>
       </c>
       <c r="D56" t="n">
-        <v>1624</v>
+        <v>4219</v>
       </c>
       <c r="E56" t="n">
-        <v>1455</v>
+        <v>3339</v>
       </c>
       <c r="F56" t="n">
-        <v>1330</v>
+        <v>3174</v>
       </c>
       <c r="G56" t="n">
-        <v>1336</v>
+        <v>3189</v>
       </c>
       <c r="H56" t="n">
-        <v>1303</v>
+        <v>3247</v>
       </c>
       <c r="I56" t="n">
-        <v>1337</v>
+        <v>3201</v>
       </c>
       <c r="J56" t="n">
-        <v>1377</v>
+        <v>3299.600000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>52.9</v>
+        <v>59.7</v>
       </c>
       <c r="L56" t="n">
         <v>1.96</v>
       </c>
       <c r="M56" t="n">
-        <v>46.4</v>
+        <v>52.3</v>
       </c>
       <c r="N56" t="n">
-        <v>1330.6</v>
+        <v>3247.300000000001</v>
       </c>
       <c r="O56" t="n">
-        <v>1423.400000000001</v>
+        <v>3351.900000000001</v>
       </c>
       <c r="P56" t="n">
-        <v>247</v>
+        <v>919.4</v>
       </c>
       <c r="Q56" t="n">
-        <v>46.4</v>
+        <v>52.3</v>
       </c>
       <c r="R56" t="n">
-        <v>17.9</v>
+        <v>27.9</v>
       </c>
       <c r="S56" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>1377.0 (±46.4)</t>
+          <t>3299.6 (±52.3)</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>247.0 (±46.4)</t>
+          <t>919.4 (±52.3)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>17.9% (±3.8%)</t>
+          <t>27.9% (±2.0%)</t>
         </is>
       </c>
       <c r="W56" t="n">
-        <v>78234</v>
+        <v>301138</v>
       </c>
       <c r="X56" t="n">
-        <v>315.7</v>
+        <v>305.3</v>
       </c>
       <c r="Y56" t="n">
-        <v>59.3</v>
+        <v>17.4</v>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>315.7(±59.3)</t>
+          <t>305.3(±17.4)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Yambol</t>
+          <t>Burgas</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>2020</v>
       </c>
       <c r="D57" t="n">
-        <v>1070</v>
+        <v>5263</v>
       </c>
       <c r="E57" t="n">
-        <v>997</v>
+        <v>4539</v>
       </c>
       <c r="F57" t="n">
-        <v>913</v>
+        <v>4424</v>
       </c>
       <c r="G57" t="n">
-        <v>897</v>
+        <v>4483</v>
       </c>
       <c r="H57" t="n">
-        <v>958</v>
+        <v>4439</v>
       </c>
       <c r="I57" t="n">
-        <v>866</v>
+        <v>4580</v>
       </c>
       <c r="J57" t="n">
-        <v>940.6000000000001</v>
+        <v>4578.6</v>
       </c>
       <c r="K57" t="n">
-        <v>46.2</v>
+        <v>59.1</v>
       </c>
       <c r="L57" t="n">
         <v>1.96</v>
       </c>
       <c r="M57" t="n">
-        <v>40.5</v>
+        <v>51.8</v>
       </c>
       <c r="N57" t="n">
-        <v>900.1000000000001</v>
+        <v>4526.8</v>
       </c>
       <c r="O57" t="n">
-        <v>981.1000000000001</v>
+        <v>4630.400000000001</v>
       </c>
       <c r="P57" t="n">
-        <v>129.4</v>
+        <v>684.4</v>
       </c>
       <c r="Q57" t="n">
-        <v>40.5</v>
+        <v>51.8</v>
       </c>
       <c r="R57" t="n">
-        <v>13.8</v>
+        <v>14.9</v>
       </c>
       <c r="S57" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>940.6 (±40.5)</t>
+          <t>4578.6 (±51.8)</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>129.4 (±40.5)</t>
+          <t>684.4 (±51.8)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>13.8% (±4.7%)</t>
+          <t>14.9% (±1.2%)</t>
         </is>
       </c>
       <c r="W57" t="n">
-        <v>57408</v>
+        <v>409750</v>
       </c>
       <c r="X57" t="n">
-        <v>225.4</v>
+        <v>167</v>
       </c>
       <c r="Y57" t="n">
-        <v>70.59999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>225.4(±70.6)</t>
+          <t>167.0(±12.7)</t>
         </is>
       </c>
     </row>
@@ -5715,87 +5715,87 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Blagoevgrad</t>
+          <t>Dobrich</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>2020</v>
       </c>
       <c r="D58" t="n">
-        <v>4219</v>
+        <v>2767</v>
       </c>
       <c r="E58" t="n">
-        <v>3339</v>
+        <v>2479</v>
       </c>
       <c r="F58" t="n">
-        <v>3174</v>
+        <v>2272</v>
       </c>
       <c r="G58" t="n">
-        <v>3189</v>
+        <v>2365</v>
       </c>
       <c r="H58" t="n">
-        <v>3247</v>
+        <v>2357</v>
       </c>
       <c r="I58" t="n">
-        <v>3201</v>
+        <v>2281</v>
       </c>
       <c r="J58" t="n">
-        <v>3299.600000000001</v>
+        <v>2406</v>
       </c>
       <c r="K58" t="n">
-        <v>59.7</v>
+        <v>74.5</v>
       </c>
       <c r="L58" t="n">
         <v>1.96</v>
       </c>
       <c r="M58" t="n">
-        <v>52.3</v>
+        <v>65.3</v>
       </c>
       <c r="N58" t="n">
-        <v>3247.300000000001</v>
+        <v>2340.7</v>
       </c>
       <c r="O58" t="n">
-        <v>3351.900000000001</v>
+        <v>2471.3</v>
       </c>
       <c r="P58" t="n">
-        <v>919.4</v>
+        <v>361</v>
       </c>
       <c r="Q58" t="n">
-        <v>52.3</v>
+        <v>65.3</v>
       </c>
       <c r="R58" t="n">
-        <v>27.9</v>
+        <v>15</v>
       </c>
       <c r="S58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>3299.6 (±52.3)</t>
+          <t>2406.0 (±65.3)</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>919.4 (±52.3)</t>
+          <t>361.0 (±65.3)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>27.9% (±2.0%)</t>
+          <t>15.0% (±3.0%)</t>
         </is>
       </c>
       <c r="W58" t="n">
-        <v>302694</v>
+        <v>170298</v>
       </c>
       <c r="X58" t="n">
-        <v>303.7</v>
+        <v>212</v>
       </c>
       <c r="Y58" t="n">
-        <v>17.3</v>
+        <v>38.3</v>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>303.7(±17.3)</t>
+          <t>212.0(±38.3)</t>
         </is>
       </c>
     </row>
@@ -5807,87 +5807,87 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Burgas</t>
+          <t>Gabrovo</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>2020</v>
       </c>
       <c r="D59" t="n">
-        <v>5263</v>
+        <v>2154</v>
       </c>
       <c r="E59" t="n">
-        <v>4539</v>
+        <v>1862</v>
       </c>
       <c r="F59" t="n">
-        <v>4424</v>
+        <v>1768</v>
       </c>
       <c r="G59" t="n">
-        <v>4483</v>
+        <v>1812</v>
       </c>
       <c r="H59" t="n">
-        <v>4439</v>
+        <v>1729</v>
       </c>
       <c r="I59" t="n">
-        <v>4580</v>
+        <v>1679</v>
       </c>
       <c r="J59" t="n">
-        <v>4578.6</v>
+        <v>1806.8</v>
       </c>
       <c r="K59" t="n">
-        <v>59.1</v>
+        <v>63.6</v>
       </c>
       <c r="L59" t="n">
         <v>1.96</v>
       </c>
       <c r="M59" t="n">
-        <v>51.8</v>
+        <v>55.7</v>
       </c>
       <c r="N59" t="n">
-        <v>4526.8</v>
+        <v>1751.1</v>
       </c>
       <c r="O59" t="n">
-        <v>4630.400000000001</v>
+        <v>1862.5</v>
       </c>
       <c r="P59" t="n">
-        <v>684.4</v>
+        <v>347.2</v>
       </c>
       <c r="Q59" t="n">
-        <v>51.8</v>
+        <v>55.7</v>
       </c>
       <c r="R59" t="n">
-        <v>14.9</v>
+        <v>19.2</v>
       </c>
       <c r="S59" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>4578.6 (±51.8)</t>
+          <t>1806.8 (±55.7)</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>684.4 (±51.8)</t>
+          <t>347.2 (±55.7)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>14.9% (±1.2%)</t>
+          <t>19.2% (±3.5%)</t>
         </is>
       </c>
       <c r="W59" t="n">
-        <v>409265</v>
+        <v>105788</v>
       </c>
       <c r="X59" t="n">
-        <v>167.2</v>
+        <v>328.2</v>
       </c>
       <c r="Y59" t="n">
-        <v>12.7</v>
+        <v>52.7</v>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>167.2(±12.7)</t>
+          <t>328.2(±52.7)</t>
         </is>
       </c>
     </row>
@@ -5899,87 +5899,87 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Dobrich</t>
+          <t>Haskovo</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>2020</v>
       </c>
       <c r="D60" t="n">
-        <v>2767</v>
+        <v>3713</v>
       </c>
       <c r="E60" t="n">
-        <v>2479</v>
+        <v>3282</v>
       </c>
       <c r="F60" t="n">
-        <v>2272</v>
+        <v>3116</v>
       </c>
       <c r="G60" t="n">
-        <v>2365</v>
+        <v>3076</v>
       </c>
       <c r="H60" t="n">
-        <v>2357</v>
+        <v>3016</v>
       </c>
       <c r="I60" t="n">
-        <v>2281</v>
+        <v>2974</v>
       </c>
       <c r="J60" t="n">
-        <v>2406</v>
+        <v>3160</v>
       </c>
       <c r="K60" t="n">
-        <v>74.5</v>
+        <v>106.4</v>
       </c>
       <c r="L60" t="n">
         <v>1.96</v>
       </c>
       <c r="M60" t="n">
-        <v>65.3</v>
+        <v>93.3</v>
       </c>
       <c r="N60" t="n">
-        <v>2340.7</v>
+        <v>3066.7</v>
       </c>
       <c r="O60" t="n">
-        <v>2471.3</v>
+        <v>3253.300000000001</v>
       </c>
       <c r="P60" t="n">
-        <v>361</v>
+        <v>553</v>
       </c>
       <c r="Q60" t="n">
-        <v>65.3</v>
+        <v>93.3</v>
       </c>
       <c r="R60" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="S60" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>2406.0 (±65.3)</t>
+          <t>3160.0 (±93.3)</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>361.0 (±65.3)</t>
+          <t>553.0 (±93.3)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>15.0% (±3.0%)</t>
+          <t>17.5% (±3.4%)</t>
         </is>
       </c>
       <c r="W60" t="n">
-        <v>171809</v>
+        <v>223625</v>
       </c>
       <c r="X60" t="n">
-        <v>210.1</v>
+        <v>247.3</v>
       </c>
       <c r="Y60" t="n">
-        <v>38</v>
+        <v>41.7</v>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>210.1(±38.0)</t>
+          <t>247.3(±41.7)</t>
         </is>
       </c>
     </row>
@@ -5991,87 +5991,87 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Gabrovo</t>
+          <t>Kardzhali</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>2020</v>
       </c>
       <c r="D61" t="n">
-        <v>2154</v>
+        <v>1927</v>
       </c>
       <c r="E61" t="n">
-        <v>1862</v>
+        <v>1546</v>
       </c>
       <c r="F61" t="n">
-        <v>1768</v>
+        <v>1537</v>
       </c>
       <c r="G61" t="n">
-        <v>1812</v>
+        <v>1532</v>
       </c>
       <c r="H61" t="n">
-        <v>1729</v>
+        <v>1535</v>
       </c>
       <c r="I61" t="n">
-        <v>1679</v>
+        <v>1527</v>
       </c>
       <c r="J61" t="n">
-        <v>1806.8</v>
+        <v>1565.8</v>
       </c>
       <c r="K61" t="n">
-        <v>63.6</v>
+        <v>6.3</v>
       </c>
       <c r="L61" t="n">
         <v>1.96</v>
       </c>
       <c r="M61" t="n">
-        <v>55.7</v>
+        <v>5.5</v>
       </c>
       <c r="N61" t="n">
-        <v>1751.1</v>
+        <v>1560.3</v>
       </c>
       <c r="O61" t="n">
-        <v>1862.5</v>
+        <v>1571.3</v>
       </c>
       <c r="P61" t="n">
-        <v>347.2</v>
+        <v>361.2</v>
       </c>
       <c r="Q61" t="n">
-        <v>55.7</v>
+        <v>5.5</v>
       </c>
       <c r="R61" t="n">
-        <v>19.2</v>
+        <v>23.1</v>
       </c>
       <c r="S61" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>1806.8 (±55.7)</t>
+          <t>1565.8 (±5.5)</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>347.2 (±55.7)</t>
+          <t>361.2 (±5.5)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>19.2% (±3.5%)</t>
+          <t>23.1% (±0.5%)</t>
         </is>
       </c>
       <c r="W61" t="n">
-        <v>106598</v>
+        <v>160781</v>
       </c>
       <c r="X61" t="n">
-        <v>325.7</v>
+        <v>224.7</v>
       </c>
       <c r="Y61" t="n">
-        <v>52.3</v>
+        <v>3.4</v>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>325.7(±52.3)</t>
+          <t>224.7(±3.4)</t>
         </is>
       </c>
     </row>
@@ -6083,87 +6083,87 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Haskovo</t>
+          <t>Kyustendil</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>2020</v>
       </c>
       <c r="D62" t="n">
-        <v>3713</v>
+        <v>2405</v>
       </c>
       <c r="E62" t="n">
-        <v>3282</v>
+        <v>1999</v>
       </c>
       <c r="F62" t="n">
-        <v>3116</v>
+        <v>2029</v>
       </c>
       <c r="G62" t="n">
-        <v>3076</v>
+        <v>1974</v>
       </c>
       <c r="H62" t="n">
-        <v>3016</v>
+        <v>1922</v>
       </c>
       <c r="I62" t="n">
-        <v>2974</v>
+        <v>1896</v>
       </c>
       <c r="J62" t="n">
-        <v>3160</v>
+        <v>1996</v>
       </c>
       <c r="K62" t="n">
-        <v>106.4</v>
+        <v>48.9</v>
       </c>
       <c r="L62" t="n">
         <v>1.96</v>
       </c>
       <c r="M62" t="n">
-        <v>93.3</v>
+        <v>42.9</v>
       </c>
       <c r="N62" t="n">
-        <v>3066.7</v>
+        <v>1953.1</v>
       </c>
       <c r="O62" t="n">
-        <v>3253.300000000001</v>
+        <v>2038.9</v>
       </c>
       <c r="P62" t="n">
-        <v>553</v>
+        <v>409</v>
       </c>
       <c r="Q62" t="n">
-        <v>93.3</v>
+        <v>42.9</v>
       </c>
       <c r="R62" t="n">
-        <v>17.5</v>
+        <v>20.5</v>
       </c>
       <c r="S62" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>3160.0 (±93.3)</t>
+          <t>1996.0 (±42.9)</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>553.0 (±93.3)</t>
+          <t>409.0 (±42.9)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>17.5% (±3.4%)</t>
+          <t>20.5% (±2.5%)</t>
         </is>
       </c>
       <c r="W62" t="n">
-        <v>225317</v>
+        <v>116619</v>
       </c>
       <c r="X62" t="n">
-        <v>245.4</v>
+        <v>350.7</v>
       </c>
       <c r="Y62" t="n">
-        <v>41.4</v>
+        <v>36.8</v>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>245.4(±41.4)</t>
+          <t>350.7(±36.8)</t>
         </is>
       </c>
     </row>
@@ -6175,87 +6175,87 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Kardzhali</t>
+          <t>Lovech</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>2020</v>
       </c>
       <c r="D63" t="n">
-        <v>1927</v>
+        <v>2321</v>
       </c>
       <c r="E63" t="n">
-        <v>1546</v>
+        <v>2105</v>
       </c>
       <c r="F63" t="n">
-        <v>1537</v>
+        <v>2070</v>
       </c>
       <c r="G63" t="n">
-        <v>1532</v>
+        <v>2057</v>
       </c>
       <c r="H63" t="n">
-        <v>1535</v>
+        <v>2000</v>
       </c>
       <c r="I63" t="n">
-        <v>1527</v>
+        <v>2042</v>
       </c>
       <c r="J63" t="n">
-        <v>1565.8</v>
+        <v>2095.599999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>6.3</v>
+        <v>34.4</v>
       </c>
       <c r="L63" t="n">
         <v>1.96</v>
       </c>
       <c r="M63" t="n">
-        <v>5.5</v>
+        <v>30.2</v>
       </c>
       <c r="N63" t="n">
-        <v>1560.3</v>
+        <v>2065.4</v>
       </c>
       <c r="O63" t="n">
-        <v>1571.3</v>
+        <v>2125.799999999999</v>
       </c>
       <c r="P63" t="n">
-        <v>361.2</v>
+        <v>225.4</v>
       </c>
       <c r="Q63" t="n">
-        <v>5.5</v>
+        <v>30.2</v>
       </c>
       <c r="R63" t="n">
-        <v>23.1</v>
+        <v>10.8</v>
       </c>
       <c r="S63" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>1565.8 (±5.5)</t>
+          <t>2095.6 (±30.2)</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>361.2 (±5.5)</t>
+          <t>225.4 (±30.2)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>23.1% (±0.5%)</t>
+          <t>10.8% (±1.6%)</t>
         </is>
       </c>
       <c r="W63" t="n">
-        <v>158204</v>
+        <v>122490</v>
       </c>
       <c r="X63" t="n">
-        <v>228.3</v>
+        <v>184</v>
       </c>
       <c r="Y63" t="n">
-        <v>3.5</v>
+        <v>24.7</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>228.3(±3.5)</t>
+          <t>184.0(±24.7)</t>
         </is>
       </c>
     </row>
@@ -6267,87 +6267,87 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Kyustendil</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>2020</v>
       </c>
       <c r="D64" t="n">
-        <v>2405</v>
+        <v>2722</v>
       </c>
       <c r="E64" t="n">
-        <v>1999</v>
+        <v>2429</v>
       </c>
       <c r="F64" t="n">
-        <v>2029</v>
+        <v>2345</v>
       </c>
       <c r="G64" t="n">
-        <v>1974</v>
+        <v>2168</v>
       </c>
       <c r="H64" t="n">
-        <v>1922</v>
+        <v>2265</v>
       </c>
       <c r="I64" t="n">
-        <v>1896</v>
+        <v>2213</v>
       </c>
       <c r="J64" t="n">
-        <v>1996</v>
+        <v>2323.2</v>
       </c>
       <c r="K64" t="n">
-        <v>48.9</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="L64" t="n">
         <v>1.96</v>
       </c>
       <c r="M64" t="n">
-        <v>42.9</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="N64" t="n">
-        <v>1953.1</v>
+        <v>2241.3</v>
       </c>
       <c r="O64" t="n">
-        <v>2038.9</v>
+        <v>2405.1</v>
       </c>
       <c r="P64" t="n">
-        <v>409</v>
+        <v>398.8</v>
       </c>
       <c r="Q64" t="n">
-        <v>42.9</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="R64" t="n">
-        <v>20.5</v>
+        <v>17.2</v>
       </c>
       <c r="S64" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>1996.0 (±42.9)</t>
+          <t>2323.2 (±81.9)</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>409.0 (±42.9)</t>
+          <t>398.8 (±81.9)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>20.5% (±2.5%)</t>
+          <t>17.2% (±4.0%)</t>
         </is>
       </c>
       <c r="W64" t="n">
-        <v>116915</v>
+        <v>125395</v>
       </c>
       <c r="X64" t="n">
-        <v>349.8</v>
+        <v>318</v>
       </c>
       <c r="Y64" t="n">
-        <v>36.7</v>
+        <v>65.3</v>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>349.8(±36.7)</t>
+          <t>318.0(±65.3)</t>
         </is>
       </c>
     </row>
@@ -6359,87 +6359,87 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Lovech</t>
+          <t>Pazardzhik</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>2020</v>
       </c>
       <c r="D65" t="n">
-        <v>2321</v>
+        <v>4139</v>
       </c>
       <c r="E65" t="n">
-        <v>2105</v>
+        <v>3326</v>
       </c>
       <c r="F65" t="n">
-        <v>2070</v>
+        <v>3178</v>
       </c>
       <c r="G65" t="n">
-        <v>2057</v>
+        <v>3204</v>
       </c>
       <c r="H65" t="n">
-        <v>2000</v>
+        <v>3100</v>
       </c>
       <c r="I65" t="n">
-        <v>2042</v>
+        <v>3141</v>
       </c>
       <c r="J65" t="n">
-        <v>2095.599999999999</v>
+        <v>3248.2</v>
       </c>
       <c r="K65" t="n">
-        <v>34.4</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="L65" t="n">
         <v>1.96</v>
       </c>
       <c r="M65" t="n">
-        <v>30.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="N65" t="n">
-        <v>2065.4</v>
+        <v>3181.1</v>
       </c>
       <c r="O65" t="n">
-        <v>2125.799999999999</v>
+        <v>3315.3</v>
       </c>
       <c r="P65" t="n">
-        <v>225.4</v>
+        <v>890.8</v>
       </c>
       <c r="Q65" t="n">
-        <v>30.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="R65" t="n">
-        <v>10.8</v>
+        <v>27.4</v>
       </c>
       <c r="S65" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>2095.6 (±30.2)</t>
+          <t>3248.2 (±67.1)</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>225.4 (±30.2)</t>
+          <t>890.8 (±67.1)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>10.8% (±1.6%)</t>
+          <t>27.4% (±2.6%)</t>
         </is>
       </c>
       <c r="W65" t="n">
-        <v>122546</v>
+        <v>251300</v>
       </c>
       <c r="X65" t="n">
-        <v>183.9</v>
+        <v>354.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>24.7</v>
+        <v>26.7</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>183.9(±24.7)</t>
+          <t>354.5(±26.7)</t>
         </is>
       </c>
     </row>
@@ -6451,87 +6451,87 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Pernik</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>2020</v>
       </c>
       <c r="D66" t="n">
-        <v>2722</v>
+        <v>2343</v>
       </c>
       <c r="E66" t="n">
-        <v>2429</v>
+        <v>2003</v>
       </c>
       <c r="F66" t="n">
-        <v>2345</v>
+        <v>1870</v>
       </c>
       <c r="G66" t="n">
-        <v>2168</v>
+        <v>1912</v>
       </c>
       <c r="H66" t="n">
-        <v>2265</v>
+        <v>1896</v>
       </c>
       <c r="I66" t="n">
-        <v>2213</v>
+        <v>1903</v>
       </c>
       <c r="J66" t="n">
-        <v>2323.2</v>
+        <v>1958.4</v>
       </c>
       <c r="K66" t="n">
-        <v>93.40000000000001</v>
+        <v>45.3</v>
       </c>
       <c r="L66" t="n">
         <v>1.96</v>
       </c>
       <c r="M66" t="n">
-        <v>81.90000000000001</v>
+        <v>39.7</v>
       </c>
       <c r="N66" t="n">
-        <v>2241.3</v>
+        <v>1918.7</v>
       </c>
       <c r="O66" t="n">
-        <v>2405.1</v>
+        <v>1998.1</v>
       </c>
       <c r="P66" t="n">
-        <v>398.8</v>
+        <v>384.6</v>
       </c>
       <c r="Q66" t="n">
-        <v>81.90000000000001</v>
+        <v>39.7</v>
       </c>
       <c r="R66" t="n">
-        <v>17.2</v>
+        <v>19.6</v>
       </c>
       <c r="S66" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>2323.2 (±81.9)</t>
+          <t>1958.4 (±39.7)</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>398.8 (±81.9)</t>
+          <t>384.6 (±39.7)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>17.2% (±4.0%)</t>
+          <t>19.6% (±2.3%)</t>
         </is>
       </c>
       <c r="W66" t="n">
-        <v>127001</v>
+        <v>120426</v>
       </c>
       <c r="X66" t="n">
-        <v>314</v>
+        <v>319.4</v>
       </c>
       <c r="Y66" t="n">
-        <v>64.5</v>
+        <v>32.9</v>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>314.0(±64.5)</t>
+          <t>319.4(±32.9)</t>
         </is>
       </c>
     </row>
@@ -6543,87 +6543,87 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Pazardzhik</t>
+          <t>Pleven</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>2020</v>
       </c>
       <c r="D67" t="n">
-        <v>4139</v>
+        <v>4336</v>
       </c>
       <c r="E67" t="n">
-        <v>3326</v>
+        <v>3892</v>
       </c>
       <c r="F67" t="n">
-        <v>3178</v>
+        <v>3723</v>
       </c>
       <c r="G67" t="n">
-        <v>3204</v>
+        <v>3584</v>
       </c>
       <c r="H67" t="n">
-        <v>3100</v>
+        <v>3674</v>
       </c>
       <c r="I67" t="n">
-        <v>3141</v>
+        <v>3675</v>
       </c>
       <c r="J67" t="n">
-        <v>3248.2</v>
+        <v>3774.399999999999</v>
       </c>
       <c r="K67" t="n">
-        <v>76.59999999999999</v>
+        <v>101.7</v>
       </c>
       <c r="L67" t="n">
         <v>1.96</v>
       </c>
       <c r="M67" t="n">
-        <v>67.09999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="N67" t="n">
-        <v>3181.1</v>
+        <v>3685.299999999999</v>
       </c>
       <c r="O67" t="n">
-        <v>3315.3</v>
+        <v>3863.499999999999</v>
       </c>
       <c r="P67" t="n">
-        <v>890.8</v>
+        <v>561.6</v>
       </c>
       <c r="Q67" t="n">
-        <v>67.09999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="R67" t="n">
-        <v>27.4</v>
+        <v>14.9</v>
       </c>
       <c r="S67" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>3248.2 (±67.1)</t>
+          <t>3774.4 (±89.1)</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>890.8 (±67.1)</t>
+          <t>561.6 (±89.1)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>27.4% (±2.6%)</t>
+          <t>14.9% (±2.7%)</t>
         </is>
       </c>
       <c r="W67" t="n">
-        <v>252776</v>
+        <v>233438</v>
       </c>
       <c r="X67" t="n">
-        <v>352.4</v>
+        <v>240.6</v>
       </c>
       <c r="Y67" t="n">
-        <v>26.6</v>
+        <v>38.1</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>352.4(±26.6)</t>
+          <t>240.6(±38.1)</t>
         </is>
       </c>
     </row>
@@ -6635,87 +6635,87 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Pernik</t>
+          <t>Plovdiv</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>2020</v>
       </c>
       <c r="D68" t="n">
-        <v>2343</v>
+        <v>9904</v>
       </c>
       <c r="E68" t="n">
-        <v>2003</v>
+        <v>8132</v>
       </c>
       <c r="F68" t="n">
-        <v>1870</v>
+        <v>7939</v>
       </c>
       <c r="G68" t="n">
-        <v>1912</v>
+        <v>7654</v>
       </c>
       <c r="H68" t="n">
-        <v>1896</v>
+        <v>7884</v>
       </c>
       <c r="I68" t="n">
-        <v>1903</v>
+        <v>7708</v>
       </c>
       <c r="J68" t="n">
-        <v>1958.4</v>
+        <v>8022.6</v>
       </c>
       <c r="K68" t="n">
-        <v>45.3</v>
+        <v>171</v>
       </c>
       <c r="L68" t="n">
         <v>1.96</v>
       </c>
       <c r="M68" t="n">
-        <v>39.7</v>
+        <v>149.9</v>
       </c>
       <c r="N68" t="n">
-        <v>1918.7</v>
+        <v>7872.700000000001</v>
       </c>
       <c r="O68" t="n">
-        <v>1998.1</v>
+        <v>8172.5</v>
       </c>
       <c r="P68" t="n">
-        <v>384.6</v>
+        <v>1881.4</v>
       </c>
       <c r="Q68" t="n">
-        <v>39.7</v>
+        <v>149.9</v>
       </c>
       <c r="R68" t="n">
-        <v>19.6</v>
+        <v>23.5</v>
       </c>
       <c r="S68" t="n">
         <v>2.3</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>1958.4 (±39.7)</t>
+          <t>8022.6 (±149.9)</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>384.6 (±39.7)</t>
+          <t>1881.4 (±149.9)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>19.6% (±2.3%)</t>
+          <t>23.5% (±2.3%)</t>
         </is>
       </c>
       <c r="W68" t="n">
-        <v>119190</v>
+        <v>666398</v>
       </c>
       <c r="X68" t="n">
-        <v>322.7</v>
+        <v>282.3</v>
       </c>
       <c r="Y68" t="n">
-        <v>33.3</v>
+        <v>22.5</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>322.7(±33.3)</t>
+          <t>282.3(±22.5)</t>
         </is>
       </c>
     </row>
@@ -6727,87 +6727,87 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Pleven</t>
+          <t>Razgrad</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>2020</v>
       </c>
       <c r="D69" t="n">
-        <v>4336</v>
+        <v>2022</v>
       </c>
       <c r="E69" t="n">
-        <v>3892</v>
+        <v>1580</v>
       </c>
       <c r="F69" t="n">
-        <v>3723</v>
+        <v>1519</v>
       </c>
       <c r="G69" t="n">
-        <v>3584</v>
+        <v>1510</v>
       </c>
       <c r="H69" t="n">
-        <v>3674</v>
+        <v>1564</v>
       </c>
       <c r="I69" t="n">
-        <v>3675</v>
+        <v>1489</v>
       </c>
       <c r="J69" t="n">
-        <v>3774.399999999999</v>
+        <v>1556.399999999999</v>
       </c>
       <c r="K69" t="n">
-        <v>101.7</v>
+        <v>34.1</v>
       </c>
       <c r="L69" t="n">
         <v>1.96</v>
       </c>
       <c r="M69" t="n">
-        <v>89.09999999999999</v>
+        <v>29.9</v>
       </c>
       <c r="N69" t="n">
-        <v>3685.299999999999</v>
+        <v>1526.499999999999</v>
       </c>
       <c r="O69" t="n">
-        <v>3863.499999999999</v>
+        <v>1586.299999999999</v>
       </c>
       <c r="P69" t="n">
-        <v>561.6</v>
+        <v>465.6</v>
       </c>
       <c r="Q69" t="n">
-        <v>89.09999999999999</v>
+        <v>29.9</v>
       </c>
       <c r="R69" t="n">
-        <v>14.9</v>
+        <v>29.9</v>
       </c>
       <c r="S69" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>3774.4 (±89.1)</t>
+          <t>1556.4 (±29.9)</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>561.6 (±89.1)</t>
+          <t>465.6 (±29.9)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>14.9% (±2.7%)</t>
+          <t>29.9% (±2.4%)</t>
         </is>
       </c>
       <c r="W69" t="n">
-        <v>236305</v>
+        <v>109810</v>
       </c>
       <c r="X69" t="n">
-        <v>237.7</v>
+        <v>424</v>
       </c>
       <c r="Y69" t="n">
-        <v>37.7</v>
+        <v>27.2</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>237.7(±37.7)</t>
+          <t>424.0(±27.2)</t>
         </is>
       </c>
     </row>
@@ -6819,87 +6819,87 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Plovdiv</t>
+          <t>Ruse</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>2020</v>
       </c>
       <c r="D70" t="n">
-        <v>9904</v>
+        <v>3729</v>
       </c>
       <c r="E70" t="n">
-        <v>8132</v>
+        <v>3111</v>
       </c>
       <c r="F70" t="n">
-        <v>7939</v>
+        <v>3002</v>
       </c>
       <c r="G70" t="n">
-        <v>7654</v>
+        <v>2810</v>
       </c>
       <c r="H70" t="n">
-        <v>7884</v>
+        <v>3056</v>
       </c>
       <c r="I70" t="n">
-        <v>7708</v>
+        <v>2938</v>
       </c>
       <c r="J70" t="n">
-        <v>8022.6</v>
+        <v>3041</v>
       </c>
       <c r="K70" t="n">
-        <v>171</v>
+        <v>103.9</v>
       </c>
       <c r="L70" t="n">
         <v>1.96</v>
       </c>
       <c r="M70" t="n">
-        <v>149.9</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="N70" t="n">
-        <v>7872.700000000001</v>
+        <v>2949.9</v>
       </c>
       <c r="O70" t="n">
-        <v>8172.5</v>
+        <v>3132.099999999999</v>
       </c>
       <c r="P70" t="n">
-        <v>1881.4</v>
+        <v>688</v>
       </c>
       <c r="Q70" t="n">
-        <v>149.9</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="R70" t="n">
-        <v>23.5</v>
+        <v>22.6</v>
       </c>
       <c r="S70" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>8022.6 (±149.9)</t>
+          <t>3041.0 (±91.1)</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>1881.4 (±149.9)</t>
+          <t>688.0 (±91.1)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>23.5% (±2.3%)</t>
+          <t>22.6% (±3.5%)</t>
         </is>
       </c>
       <c r="W70" t="n">
-        <v>666801</v>
+        <v>212729</v>
       </c>
       <c r="X70" t="n">
-        <v>282.2</v>
+        <v>323.4</v>
       </c>
       <c r="Y70" t="n">
-        <v>22.4</v>
+        <v>42.8</v>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>282.2(±22.4)</t>
+          <t>323.4(±42.8)</t>
         </is>
       </c>
     </row>
@@ -6911,87 +6911,87 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Razgrad</t>
+          <t>Shumen</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>2020</v>
       </c>
       <c r="D71" t="n">
-        <v>2022</v>
+        <v>2693</v>
       </c>
       <c r="E71" t="n">
-        <v>1580</v>
+        <v>2266</v>
       </c>
       <c r="F71" t="n">
-        <v>1519</v>
+        <v>2073</v>
       </c>
       <c r="G71" t="n">
-        <v>1510</v>
+        <v>2087</v>
       </c>
       <c r="H71" t="n">
-        <v>1564</v>
+        <v>2231</v>
       </c>
       <c r="I71" t="n">
-        <v>1489</v>
+        <v>2085</v>
       </c>
       <c r="J71" t="n">
-        <v>1556.399999999999</v>
+        <v>2187.599999999999</v>
       </c>
       <c r="K71" t="n">
-        <v>34.1</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="L71" t="n">
         <v>1.96</v>
       </c>
       <c r="M71" t="n">
-        <v>29.9</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="N71" t="n">
-        <v>1526.499999999999</v>
+        <v>2115.199999999999</v>
       </c>
       <c r="O71" t="n">
-        <v>1586.299999999999</v>
+        <v>2260</v>
       </c>
       <c r="P71" t="n">
-        <v>465.6</v>
+        <v>505.4</v>
       </c>
       <c r="Q71" t="n">
-        <v>29.9</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="R71" t="n">
-        <v>29.9</v>
+        <v>23.1</v>
       </c>
       <c r="S71" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>1556.4 (±29.9)</t>
+          <t>2187.6 (±72.4)</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>465.6 (±29.9)</t>
+          <t>505.4 (±72.4)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>29.9% (±2.4%)</t>
+          <t>23.1% (±3.9%)</t>
         </is>
       </c>
       <c r="W71" t="n">
-        <v>110789</v>
+        <v>171781</v>
       </c>
       <c r="X71" t="n">
-        <v>420.3</v>
+        <v>294.2</v>
       </c>
       <c r="Y71" t="n">
-        <v>26.9</v>
+        <v>42.2</v>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>420.3(±26.9)</t>
+          <t>294.2(±42.2)</t>
         </is>
       </c>
     </row>
@@ -7003,87 +7003,87 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ruse</t>
+          <t>Silistra</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>2020</v>
       </c>
       <c r="D72" t="n">
-        <v>3729</v>
+        <v>1986</v>
       </c>
       <c r="E72" t="n">
-        <v>3111</v>
+        <v>1663</v>
       </c>
       <c r="F72" t="n">
-        <v>3002</v>
+        <v>1441</v>
       </c>
       <c r="G72" t="n">
-        <v>2810</v>
+        <v>1487</v>
       </c>
       <c r="H72" t="n">
-        <v>3056</v>
+        <v>1590</v>
       </c>
       <c r="I72" t="n">
-        <v>2938</v>
+        <v>1523</v>
       </c>
       <c r="J72" t="n">
-        <v>3041</v>
+        <v>1575.2</v>
       </c>
       <c r="K72" t="n">
-        <v>103.9</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="L72" t="n">
         <v>1.96</v>
       </c>
       <c r="M72" t="n">
-        <v>91.09999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="N72" t="n">
-        <v>2949.9</v>
+        <v>1506.7</v>
       </c>
       <c r="O72" t="n">
-        <v>3132.099999999999</v>
+        <v>1643.7</v>
       </c>
       <c r="P72" t="n">
-        <v>688</v>
+        <v>410.8</v>
       </c>
       <c r="Q72" t="n">
-        <v>91.09999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="R72" t="n">
-        <v>22.6</v>
+        <v>26.1</v>
       </c>
       <c r="S72" t="n">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>3041.0 (±91.1)</t>
+          <t>1575.2 (±68.5)</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>688.0 (±91.1)</t>
+          <t>410.8 (±68.5)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>22.6% (±3.5%)</t>
+          <t>26.1% (±5.3%)</t>
         </is>
       </c>
       <c r="W72" t="n">
-        <v>215477</v>
+        <v>106852</v>
       </c>
       <c r="X72" t="n">
-        <v>319.3</v>
+        <v>384.5</v>
       </c>
       <c r="Y72" t="n">
-        <v>42.3</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>319.3(±42.3)</t>
+          <t>384.5(±64.1)</t>
         </is>
       </c>
     </row>
@@ -7095,87 +7095,87 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Shumen</t>
+          <t>Sliven</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>2020</v>
       </c>
       <c r="D73" t="n">
-        <v>2693</v>
+        <v>2799</v>
       </c>
       <c r="E73" t="n">
-        <v>2266</v>
+        <v>2380</v>
       </c>
       <c r="F73" t="n">
-        <v>2073</v>
+        <v>2269</v>
       </c>
       <c r="G73" t="n">
-        <v>2087</v>
+        <v>2237</v>
       </c>
       <c r="H73" t="n">
-        <v>2231</v>
+        <v>2336</v>
       </c>
       <c r="I73" t="n">
-        <v>2085</v>
+        <v>2195</v>
       </c>
       <c r="J73" t="n">
-        <v>2187.599999999999</v>
+        <v>2323.400000000001</v>
       </c>
       <c r="K73" t="n">
-        <v>82.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="L73" t="n">
         <v>1.96</v>
       </c>
       <c r="M73" t="n">
-        <v>72.40000000000001</v>
+        <v>58.5</v>
       </c>
       <c r="N73" t="n">
-        <v>2115.199999999999</v>
+        <v>2264.900000000001</v>
       </c>
       <c r="O73" t="n">
-        <v>2260</v>
+        <v>2381.900000000001</v>
       </c>
       <c r="P73" t="n">
-        <v>505.4</v>
+        <v>475.6</v>
       </c>
       <c r="Q73" t="n">
-        <v>72.40000000000001</v>
+        <v>58.5</v>
       </c>
       <c r="R73" t="n">
-        <v>23.1</v>
+        <v>20.5</v>
       </c>
       <c r="S73" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>2187.6 (±72.4)</t>
+          <t>2323.4 (±58.5)</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>505.4 (±72.4)</t>
+          <t>475.6 (±58.5)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>23.1% (±3.9%)</t>
+          <t>20.5% (±3.0%)</t>
         </is>
       </c>
       <c r="W73" t="n">
-        <v>172262</v>
+        <v>182551</v>
       </c>
       <c r="X73" t="n">
-        <v>293.4</v>
+        <v>260.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>42</v>
+        <v>32.1</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>293.4(±42.0)</t>
+          <t>260.5(±32.1)</t>
         </is>
       </c>
     </row>
@@ -7187,87 +7187,87 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Silistra</t>
+          <t>Smolyan</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>2020</v>
       </c>
       <c r="D74" t="n">
-        <v>1986</v>
+        <v>1794</v>
       </c>
       <c r="E74" t="n">
-        <v>1663</v>
+        <v>1346</v>
       </c>
       <c r="F74" t="n">
-        <v>1441</v>
+        <v>1341</v>
       </c>
       <c r="G74" t="n">
-        <v>1487</v>
+        <v>1396</v>
       </c>
       <c r="H74" t="n">
-        <v>1590</v>
+        <v>1358</v>
       </c>
       <c r="I74" t="n">
-        <v>1523</v>
+        <v>1307</v>
       </c>
       <c r="J74" t="n">
-        <v>1575.2</v>
+        <v>1369.6</v>
       </c>
       <c r="K74" t="n">
-        <v>78.09999999999999</v>
+        <v>28.7</v>
       </c>
       <c r="L74" t="n">
         <v>1.96</v>
       </c>
       <c r="M74" t="n">
-        <v>68.5</v>
+        <v>25.2</v>
       </c>
       <c r="N74" t="n">
-        <v>1506.7</v>
+        <v>1344.4</v>
       </c>
       <c r="O74" t="n">
-        <v>1643.7</v>
+        <v>1394.8</v>
       </c>
       <c r="P74" t="n">
-        <v>410.8</v>
+        <v>424.4</v>
       </c>
       <c r="Q74" t="n">
-        <v>68.5</v>
+        <v>25.2</v>
       </c>
       <c r="R74" t="n">
-        <v>26.1</v>
+        <v>31</v>
       </c>
       <c r="S74" t="n">
-        <v>5.3</v>
+        <v>2.4</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>1575.2 (±68.5)</t>
+          <t>1369.6 (±25.2)</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>410.8 (±68.5)</t>
+          <t>424.4 (±25.2)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>26.1% (±5.3%)</t>
+          <t>31.0% (±2.4%)</t>
         </is>
       </c>
       <c r="W74" t="n">
-        <v>108018</v>
+        <v>101887</v>
       </c>
       <c r="X74" t="n">
-        <v>380.3</v>
+        <v>416.5</v>
       </c>
       <c r="Y74" t="n">
-        <v>63.4</v>
+        <v>24.8</v>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>380.3(±63.4)</t>
+          <t>416.5(±24.8)</t>
         </is>
       </c>
     </row>
@@ -7279,87 +7279,87 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sliven</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>2020</v>
       </c>
       <c r="D75" t="n">
-        <v>2799</v>
+        <v>4177</v>
       </c>
       <c r="E75" t="n">
-        <v>2380</v>
+        <v>3458</v>
       </c>
       <c r="F75" t="n">
-        <v>2269</v>
+        <v>3456</v>
       </c>
       <c r="G75" t="n">
-        <v>2237</v>
+        <v>3419</v>
       </c>
       <c r="H75" t="n">
-        <v>2336</v>
+        <v>3399</v>
       </c>
       <c r="I75" t="n">
-        <v>2195</v>
+        <v>3308</v>
       </c>
       <c r="J75" t="n">
-        <v>2323.400000000001</v>
+        <v>3477.599999999999</v>
       </c>
       <c r="K75" t="n">
-        <v>66.7</v>
+        <v>54.8</v>
       </c>
       <c r="L75" t="n">
         <v>1.96</v>
       </c>
       <c r="M75" t="n">
-        <v>58.5</v>
+        <v>48</v>
       </c>
       <c r="N75" t="n">
-        <v>2264.900000000001</v>
+        <v>3429.599999999999</v>
       </c>
       <c r="O75" t="n">
-        <v>2381.900000000001</v>
+        <v>3525.599999999999</v>
       </c>
       <c r="P75" t="n">
-        <v>475.6</v>
+        <v>699.4</v>
       </c>
       <c r="Q75" t="n">
-        <v>58.5</v>
+        <v>48</v>
       </c>
       <c r="R75" t="n">
-        <v>20.5</v>
+        <v>20.1</v>
       </c>
       <c r="S75" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>2323.4 (±58.5)</t>
+          <t>3477.6 (±48.0)</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>475.6 (±58.5)</t>
+          <t>699.4 (±48.0)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>20.5% (±3.0%)</t>
+          <t>20.1% (±1.6%)</t>
         </is>
       </c>
       <c r="W75" t="n">
-        <v>184119</v>
+        <v>238476</v>
       </c>
       <c r="X75" t="n">
-        <v>258.3</v>
+        <v>293.3</v>
       </c>
       <c r="Y75" t="n">
-        <v>31.8</v>
+        <v>20.1</v>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>258.3(±31.8)</t>
+          <t>293.3(±20.1)</t>
         </is>
       </c>
     </row>
@@ -7371,87 +7371,87 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Smolyan</t>
+          <t>Stara Zagora</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>2020</v>
       </c>
       <c r="D76" t="n">
-        <v>1794</v>
+        <v>5045</v>
       </c>
       <c r="E76" t="n">
-        <v>1346</v>
+        <v>4332</v>
       </c>
       <c r="F76" t="n">
-        <v>1341</v>
+        <v>4148</v>
       </c>
       <c r="G76" t="n">
-        <v>1396</v>
+        <v>4185</v>
       </c>
       <c r="H76" t="n">
-        <v>1358</v>
+        <v>4242</v>
       </c>
       <c r="I76" t="n">
-        <v>1307</v>
+        <v>4079</v>
       </c>
       <c r="J76" t="n">
-        <v>1369.6</v>
+        <v>4278.799999999999</v>
       </c>
       <c r="K76" t="n">
-        <v>28.7</v>
+        <v>85.7</v>
       </c>
       <c r="L76" t="n">
         <v>1.96</v>
       </c>
       <c r="M76" t="n">
-        <v>25.2</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="N76" t="n">
-        <v>1344.4</v>
+        <v>4203.699999999999</v>
       </c>
       <c r="O76" t="n">
-        <v>1394.8</v>
+        <v>4353.9</v>
       </c>
       <c r="P76" t="n">
-        <v>424.4</v>
+        <v>766.2</v>
       </c>
       <c r="Q76" t="n">
-        <v>25.2</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="R76" t="n">
-        <v>31</v>
+        <v>17.9</v>
       </c>
       <c r="S76" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>1369.6 (±25.2)</t>
+          <t>4278.8 (±75.1)</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>424.4 (±25.2)</t>
+          <t>766.2 (±75.1)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>31.0% (±2.4%)</t>
+          <t>17.9% (±2.0%)</t>
         </is>
       </c>
       <c r="W76" t="n">
-        <v>103532</v>
+        <v>311400</v>
       </c>
       <c r="X76" t="n">
-        <v>409.9</v>
+        <v>246.1</v>
       </c>
       <c r="Y76" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>409.9(±24.4)</t>
+          <t>246.1(±24.1)</t>
         </is>
       </c>
     </row>
@@ -7463,87 +7463,87 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Targovishte</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>2020</v>
       </c>
       <c r="D77" t="n">
-        <v>4177</v>
+        <v>1846</v>
       </c>
       <c r="E77" t="n">
-        <v>3458</v>
+        <v>1549</v>
       </c>
       <c r="F77" t="n">
-        <v>3456</v>
+        <v>1513</v>
       </c>
       <c r="G77" t="n">
-        <v>3419</v>
+        <v>1477</v>
       </c>
       <c r="H77" t="n">
-        <v>3399</v>
+        <v>1466</v>
       </c>
       <c r="I77" t="n">
-        <v>3308</v>
+        <v>1460</v>
       </c>
       <c r="J77" t="n">
-        <v>3477.599999999999</v>
+        <v>1524.2</v>
       </c>
       <c r="K77" t="n">
-        <v>54.8</v>
+        <v>33.5</v>
       </c>
       <c r="L77" t="n">
         <v>1.96</v>
       </c>
       <c r="M77" t="n">
-        <v>48</v>
+        <v>29.4</v>
       </c>
       <c r="N77" t="n">
-        <v>3429.599999999999</v>
+        <v>1494.8</v>
       </c>
       <c r="O77" t="n">
-        <v>3525.599999999999</v>
+        <v>1553.6</v>
       </c>
       <c r="P77" t="n">
-        <v>699.4</v>
+        <v>321.8</v>
       </c>
       <c r="Q77" t="n">
-        <v>48</v>
+        <v>29.4</v>
       </c>
       <c r="R77" t="n">
-        <v>20.1</v>
+        <v>21.1</v>
       </c>
       <c r="S77" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>3477.6 (±48.0)</t>
+          <t>1524.2 (±29.4)</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>699.4 (±48.0)</t>
+          <t>321.8 (±29.4)</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>20.1% (±1.6%)</t>
+          <t>21.1% (±2.3%)</t>
         </is>
       </c>
       <c r="W77" t="n">
-        <v>226671</v>
+        <v>110027</v>
       </c>
       <c r="X77" t="n">
-        <v>308.6</v>
+        <v>292.5</v>
       </c>
       <c r="Y77" t="n">
-        <v>21.1</v>
+        <v>26.7</v>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>308.6(±21.1)</t>
+          <t>292.5(±26.7)</t>
         </is>
       </c>
     </row>
@@ -7555,87 +7555,87 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sofia (stolitsa)</t>
+          <t>Varna</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>2020</v>
       </c>
       <c r="D78" t="n">
-        <v>15141</v>
+        <v>5893</v>
       </c>
       <c r="E78" t="n">
-        <v>12899</v>
+        <v>4985</v>
       </c>
       <c r="F78" t="n">
-        <v>12605</v>
+        <v>4947</v>
       </c>
       <c r="G78" t="n">
-        <v>12183</v>
+        <v>4832</v>
       </c>
       <c r="H78" t="n">
-        <v>12459</v>
+        <v>4946</v>
       </c>
       <c r="I78" t="n">
-        <v>12476</v>
+        <v>4683</v>
       </c>
       <c r="J78" t="n">
-        <v>12776.4</v>
+        <v>4986.599999999999</v>
       </c>
       <c r="K78" t="n">
-        <v>232.4</v>
+        <v>110.4</v>
       </c>
       <c r="L78" t="n">
         <v>1.96</v>
       </c>
       <c r="M78" t="n">
-        <v>203.7</v>
+        <v>96.8</v>
       </c>
       <c r="N78" t="n">
-        <v>12572.7</v>
+        <v>4889.799999999999</v>
       </c>
       <c r="O78" t="n">
-        <v>12980.1</v>
+        <v>5083.4</v>
       </c>
       <c r="P78" t="n">
-        <v>2364.6</v>
+        <v>906.4</v>
       </c>
       <c r="Q78" t="n">
-        <v>203.7</v>
+        <v>96.8</v>
       </c>
       <c r="R78" t="n">
-        <v>18.5</v>
+        <v>18.2</v>
       </c>
       <c r="S78" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>12776.4 (±203.7)</t>
+          <t>4986.6 (±96.8)</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>2364.6 (±203.7)</t>
+          <t>906.4 (±96.8)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>18.5% (±1.9%)</t>
+          <t>18.2% (±2.3%)</t>
         </is>
       </c>
       <c r="W78" t="n">
-        <v>1328790</v>
+        <v>470124</v>
       </c>
       <c r="X78" t="n">
-        <v>178</v>
+        <v>192.8</v>
       </c>
       <c r="Y78" t="n">
-        <v>15.3</v>
+        <v>20.6</v>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>178.0(±15.3)</t>
+          <t>192.8(±20.6)</t>
         </is>
       </c>
     </row>
@@ -7647,87 +7647,87 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Stara Zagora</t>
+          <t>Veliko Tarnovo</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>2020</v>
       </c>
       <c r="D79" t="n">
-        <v>5045</v>
+        <v>3826</v>
       </c>
       <c r="E79" t="n">
-        <v>4332</v>
+        <v>3357</v>
       </c>
       <c r="F79" t="n">
-        <v>4148</v>
+        <v>3293</v>
       </c>
       <c r="G79" t="n">
-        <v>4185</v>
+        <v>3329</v>
       </c>
       <c r="H79" t="n">
-        <v>4242</v>
+        <v>3267</v>
       </c>
       <c r="I79" t="n">
-        <v>4079</v>
+        <v>3226</v>
       </c>
       <c r="J79" t="n">
-        <v>4278.799999999999</v>
+        <v>3360</v>
       </c>
       <c r="K79" t="n">
-        <v>85.7</v>
+        <v>45.9</v>
       </c>
       <c r="L79" t="n">
         <v>1.96</v>
       </c>
       <c r="M79" t="n">
-        <v>75.09999999999999</v>
+        <v>40.2</v>
       </c>
       <c r="N79" t="n">
-        <v>4203.699999999999</v>
+        <v>3319.800000000001</v>
       </c>
       <c r="O79" t="n">
-        <v>4353.9</v>
+        <v>3400.2</v>
       </c>
       <c r="P79" t="n">
-        <v>766.2</v>
+        <v>466</v>
       </c>
       <c r="Q79" t="n">
-        <v>75.09999999999999</v>
+        <v>40.2</v>
       </c>
       <c r="R79" t="n">
-        <v>17.9</v>
+        <v>13.9</v>
       </c>
       <c r="S79" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>4278.8 (±75.1)</t>
+          <t>3360.0 (±40.2)</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>766.2 (±75.1)</t>
+          <t>466.0 (±40.2)</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>17.9% (±2.0%)</t>
+          <t>13.9% (±1.4%)</t>
         </is>
       </c>
       <c r="W79" t="n">
-        <v>313396</v>
+        <v>229718</v>
       </c>
       <c r="X79" t="n">
-        <v>244.5</v>
+        <v>202.9</v>
       </c>
       <c r="Y79" t="n">
-        <v>23.9</v>
+        <v>17.5</v>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>244.5(±23.9)</t>
+          <t>202.9(±17.5)</t>
         </is>
       </c>
     </row>
@@ -7739,87 +7739,87 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Targovishte</t>
+          <t>Vidin</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>2020</v>
       </c>
       <c r="D80" t="n">
-        <v>1846</v>
+        <v>1933</v>
       </c>
       <c r="E80" t="n">
-        <v>1549</v>
+        <v>1730</v>
       </c>
       <c r="F80" t="n">
-        <v>1513</v>
+        <v>1652</v>
       </c>
       <c r="G80" t="n">
-        <v>1477</v>
+        <v>1539</v>
       </c>
       <c r="H80" t="n">
-        <v>1466</v>
+        <v>1596</v>
       </c>
       <c r="I80" t="n">
-        <v>1460</v>
+        <v>1568</v>
       </c>
       <c r="J80" t="n">
-        <v>1524.2</v>
+        <v>1646.6</v>
       </c>
       <c r="K80" t="n">
-        <v>33.5</v>
+        <v>67.7</v>
       </c>
       <c r="L80" t="n">
         <v>1.96</v>
       </c>
       <c r="M80" t="n">
-        <v>29.4</v>
+        <v>59.3</v>
       </c>
       <c r="N80" t="n">
-        <v>1494.8</v>
+        <v>1587.3</v>
       </c>
       <c r="O80" t="n">
-        <v>1553.6</v>
+        <v>1705.9</v>
       </c>
       <c r="P80" t="n">
-        <v>321.8</v>
+        <v>286.4</v>
       </c>
       <c r="Q80" t="n">
-        <v>29.4</v>
+        <v>59.3</v>
       </c>
       <c r="R80" t="n">
-        <v>21.1</v>
+        <v>17.4</v>
       </c>
       <c r="S80" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>1524.2 (±29.4)</t>
+          <t>1646.6 (±59.3)</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>321.8 (±29.4)</t>
+          <t>286.4 (±59.3)</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>21.1% (±2.3%)</t>
+          <t>17.4% (±4.1%)</t>
         </is>
       </c>
       <c r="W80" t="n">
-        <v>110914</v>
+        <v>81212</v>
       </c>
       <c r="X80" t="n">
-        <v>290.1</v>
+        <v>352.7</v>
       </c>
       <c r="Y80" t="n">
-        <v>26.5</v>
+        <v>73</v>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>290.1(±26.5)</t>
+          <t>352.7(±73.0)</t>
         </is>
       </c>
     </row>
@@ -7831,87 +7831,87 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Varna</t>
+          <t>Vratsa</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>2020</v>
       </c>
       <c r="D81" t="n">
-        <v>5893</v>
+        <v>3001</v>
       </c>
       <c r="E81" t="n">
-        <v>4985</v>
+        <v>2756</v>
       </c>
       <c r="F81" t="n">
-        <v>4947</v>
+        <v>2582</v>
       </c>
       <c r="G81" t="n">
-        <v>4832</v>
+        <v>2620</v>
       </c>
       <c r="H81" t="n">
-        <v>4946</v>
+        <v>2572</v>
       </c>
       <c r="I81" t="n">
-        <v>4683</v>
+        <v>2499</v>
       </c>
       <c r="J81" t="n">
-        <v>4986.599999999999</v>
+        <v>2655.4</v>
       </c>
       <c r="K81" t="n">
-        <v>110.4</v>
+        <v>84.7</v>
       </c>
       <c r="L81" t="n">
         <v>1.96</v>
       </c>
       <c r="M81" t="n">
-        <v>96.8</v>
+        <v>74.2</v>
       </c>
       <c r="N81" t="n">
-        <v>4889.799999999999</v>
+        <v>2581.2</v>
       </c>
       <c r="O81" t="n">
-        <v>5083.4</v>
+        <v>2729.599999999999</v>
       </c>
       <c r="P81" t="n">
-        <v>906.4</v>
+        <v>345.6</v>
       </c>
       <c r="Q81" t="n">
-        <v>96.8</v>
+        <v>74.2</v>
       </c>
       <c r="R81" t="n">
-        <v>18.2</v>
+        <v>13</v>
       </c>
       <c r="S81" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>4986.6 (±96.8)</t>
+          <t>2655.4 (±74.2)</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>906.4 (±96.8)</t>
+          <t>345.6 (±74.2)</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>18.2% (±2.3%)</t>
+          <t>13.0% (±3.1%)</t>
         </is>
       </c>
       <c r="W81" t="n">
-        <v>469885</v>
+        <v>157637</v>
       </c>
       <c r="X81" t="n">
-        <v>192.9</v>
+        <v>219.2</v>
       </c>
       <c r="Y81" t="n">
-        <v>20.6</v>
+        <v>47.1</v>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>192.9(±20.6)</t>
+          <t>219.2(±47.1)</t>
         </is>
       </c>
     </row>
@@ -7923,363 +7923,87 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Veliko Tarnovo</t>
+          <t>Yambol</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>2020</v>
       </c>
       <c r="D82" t="n">
-        <v>3826</v>
+        <v>2052</v>
       </c>
       <c r="E82" t="n">
-        <v>3357</v>
+        <v>1936</v>
       </c>
       <c r="F82" t="n">
-        <v>3293</v>
+        <v>1696</v>
       </c>
       <c r="G82" t="n">
-        <v>3329</v>
+        <v>1678</v>
       </c>
       <c r="H82" t="n">
-        <v>3267</v>
+        <v>1781</v>
       </c>
       <c r="I82" t="n">
-        <v>3226</v>
+        <v>1677</v>
       </c>
       <c r="J82" t="n">
-        <v>3360</v>
+        <v>1789.6</v>
       </c>
       <c r="K82" t="n">
-        <v>45.9</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="L82" t="n">
         <v>1.96</v>
       </c>
       <c r="M82" t="n">
-        <v>40.2</v>
+        <v>86.7</v>
       </c>
       <c r="N82" t="n">
-        <v>3319.800000000001</v>
+        <v>1702.9</v>
       </c>
       <c r="O82" t="n">
-        <v>3400.2</v>
+        <v>1876.3</v>
       </c>
       <c r="P82" t="n">
-        <v>466</v>
+        <v>262.4</v>
       </c>
       <c r="Q82" t="n">
-        <v>40.2</v>
+        <v>86.7</v>
       </c>
       <c r="R82" t="n">
-        <v>13.9</v>
+        <v>14.7</v>
       </c>
       <c r="S82" t="n">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>3360.0 (±40.2)</t>
+          <t>1789.6 (±86.7)</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>466.0 (±40.2)</t>
+          <t>262.4 (±86.7)</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>13.9% (±1.4%)</t>
+          <t>14.7% (±5.3%)</t>
         </is>
       </c>
       <c r="W82" t="n">
-        <v>232568</v>
+        <v>116486</v>
       </c>
       <c r="X82" t="n">
-        <v>200.4</v>
+        <v>225.3</v>
       </c>
       <c r="Y82" t="n">
-        <v>17.3</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>200.4(±17.3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Vidin</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1933</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1730</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1652</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1539</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1596</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1568</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1646.6</v>
-      </c>
-      <c r="K83" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="L83" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M83" t="n">
-        <v>59.3</v>
-      </c>
-      <c r="N83" t="n">
-        <v>1587.3</v>
-      </c>
-      <c r="O83" t="n">
-        <v>1705.9</v>
-      </c>
-      <c r="P83" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>59.3</v>
-      </c>
-      <c r="R83" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="S83" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>1646.6 (±59.3)</t>
-        </is>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>286.4 (±59.3)</t>
-        </is>
-      </c>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>17.4% (±4.1%)</t>
-        </is>
-      </c>
-      <c r="W83" t="n">
-        <v>82835</v>
-      </c>
-      <c r="X83" t="n">
-        <v>345.7</v>
-      </c>
-      <c r="Y83" t="n">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>345.7(±71.6)</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Vratsa</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D84" t="n">
-        <v>3001</v>
-      </c>
-      <c r="E84" t="n">
-        <v>2756</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2582</v>
-      </c>
-      <c r="G84" t="n">
-        <v>2620</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2572</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2499</v>
-      </c>
-      <c r="J84" t="n">
-        <v>2655.4</v>
-      </c>
-      <c r="K84" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="L84" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M84" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="N84" t="n">
-        <v>2581.2</v>
-      </c>
-      <c r="O84" t="n">
-        <v>2729.599999999999</v>
-      </c>
-      <c r="P84" t="n">
-        <v>345.6</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="R84" t="n">
-        <v>13</v>
-      </c>
-      <c r="S84" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>2655.4 (±74.2)</t>
-        </is>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>345.6 (±74.2)</t>
-        </is>
-      </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>13.0% (±3.1%)</t>
-        </is>
-      </c>
-      <c r="W84" t="n">
-        <v>159470</v>
-      </c>
-      <c r="X84" t="n">
-        <v>216.7</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="Z84" t="inlineStr">
-        <is>
-          <t>216.7(±46.5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Yambol</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D85" t="n">
-        <v>2052</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1936</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1696</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1678</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1781</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1677</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1789.6</v>
-      </c>
-      <c r="K85" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="L85" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M85" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="N85" t="n">
-        <v>1702.9</v>
-      </c>
-      <c r="O85" t="n">
-        <v>1876.3</v>
-      </c>
-      <c r="P85" t="n">
-        <v>262.4</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="R85" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="S85" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>1789.6 (±86.7)</t>
-        </is>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>262.4 (±86.7)</t>
-        </is>
-      </c>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>14.7% (±5.3%)</t>
-        </is>
-      </c>
-      <c r="W85" t="n">
-        <v>117335</v>
-      </c>
-      <c r="X85" t="n">
-        <v>223.6</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="Z85" t="inlineStr">
-        <is>
-          <t>223.6(±73.9)</t>
+          <t>225.3(±74.4)</t>
         </is>
       </c>
     </row>
